--- a/BackTest/2019-10-14 BackTest FAB.xlsx
+++ b/BackTest/2019-10-14 BackTest FAB.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.370000000000001</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>35.29411764705878</v>
+      </c>
       <c r="L12" t="n">
         <v>6.269</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.4000000000000012</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>24.32432432432422</v>
+      </c>
       <c r="L13" t="n">
         <v>6.278</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.4000000000000012</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>27.77777777777758</v>
+      </c>
       <c r="L14" t="n">
         <v>6.287000000000001</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.410000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>17.64705882352926</v>
+      </c>
       <c r="L15" t="n">
         <v>6.296000000000001</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.5200000000000014</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-25.00000000000006</v>
+      </c>
       <c r="L16" t="n">
         <v>6.291000000000001</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.530000000000002</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-15.78947368421035</v>
+      </c>
       <c r="L17" t="n">
         <v>6.282000000000001</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.5500000000000025</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-41.17647058823489</v>
+      </c>
       <c r="L18" t="n">
         <v>6.274000000000001</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.6300000000000026</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-77.77777777777739</v>
+      </c>
       <c r="L19" t="n">
         <v>6.252000000000001</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.6700000000000026</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-51.5151515151512</v>
+      </c>
       <c r="L20" t="n">
         <v>6.228000000000001</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.7100000000000026</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-70.58823529411737</v>
+      </c>
       <c r="L21" t="n">
         <v>6.207000000000001</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>0.7600000000000025</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-72.22222222222192</v>
+      </c>
       <c r="L22" t="n">
         <v>6.178000000000002</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>0.8000000000000025</v>
       </c>
       <c r="K23" t="n">
-        <v>-27.27272727272719</v>
+        <v>-74.99999999999972</v>
       </c>
       <c r="L23" t="n">
         <v>6.148000000000001</v>
@@ -1466,7 +1488,7 @@
         <v>0.9200000000000026</v>
       </c>
       <c r="K24" t="n">
-        <v>-10.11235955056175</v>
+        <v>-33.33333333333321</v>
       </c>
       <c r="L24" t="n">
         <v>6.130000000000003</v>
@@ -1515,7 +1537,7 @@
         <v>0.9700000000000024</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.97849462365587</v>
+        <v>-24.44444444444426</v>
       </c>
       <c r="L25" t="n">
         <v>6.108000000000003</v>
@@ -1564,7 +1586,7 @@
         <v>1.020000000000002</v>
       </c>
       <c r="K26" t="n">
-        <v>-11.57894736842106</v>
+        <v>-14.28571428571434</v>
       </c>
       <c r="L26" t="n">
         <v>6.102000000000003</v>
@@ -1613,7 +1635,7 @@
         <v>1.070000000000002</v>
       </c>
       <c r="K27" t="n">
-        <v>-22.10526315789469</v>
+        <v>-19.23076923076918</v>
       </c>
       <c r="L27" t="n">
         <v>6.090000000000003</v>
@@ -1662,7 +1684,7 @@
         <v>1.080000000000003</v>
       </c>
       <c r="K28" t="n">
-        <v>-20.43010752688171</v>
+        <v>-6.666666666666719</v>
       </c>
       <c r="L28" t="n">
         <v>6.079000000000003</v>
@@ -1711,7 +1733,7 @@
         <v>1.160000000000002</v>
       </c>
       <c r="K29" t="n">
-        <v>-34.736842105263</v>
+        <v>-30.61224489795912</v>
       </c>
       <c r="L29" t="n">
         <v>6.068000000000003</v>
@@ -1760,7 +1782,7 @@
         <v>1.230000000000002</v>
       </c>
       <c r="K30" t="n">
-        <v>-47.91666666666657</v>
+        <v>-34.61538461538458</v>
       </c>
       <c r="L30" t="n">
         <v>6.046000000000003</v>
@@ -1809,7 +1831,7 @@
         <v>1.300000000000002</v>
       </c>
       <c r="K31" t="n">
-        <v>-33.33333333333321</v>
+        <v>-11.11111111111104</v>
       </c>
       <c r="L31" t="n">
         <v>6.035000000000002</v>
@@ -1860,7 +1882,7 @@
         <v>1.350000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-30.61224489795912</v>
+        <v>5.454545454545501</v>
       </c>
       <c r="L32" t="n">
         <v>6.034000000000002</v>
@@ -1911,7 +1933,7 @@
         <v>1.460000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-15.09433962264151</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L33" t="n">
         <v>6.048000000000002</v>
@@ -1962,7 +1984,7 @@
         <v>1.550000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>-21.7391304347826</v>
+        <v>-3.44827586206905</v>
       </c>
       <c r="L34" t="n">
         <v>6.041000000000002</v>
@@ -2013,7 +2035,7 @@
         <v>1.610000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>-24.99999999999998</v>
+        <v>-22.03389830508477</v>
       </c>
       <c r="L35" t="n">
         <v>6.033000000000002</v>
@@ -2064,7 +2086,7 @@
         <v>1.660000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>-12.28070175438594</v>
+        <v>-5.084745762711916</v>
       </c>
       <c r="L36" t="n">
         <v>6.025000000000002</v>
@@ -2115,7 +2137,7 @@
         <v>1.690000000000001</v>
       </c>
       <c r="K37" t="n">
-        <v>-15.51724137931041</v>
+        <v>-8.1967213114754</v>
       </c>
       <c r="L37" t="n">
         <v>6.019000000000002</v>
@@ -2166,7 +2188,7 @@
         <v>1.720000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>-11.11111111111111</v>
+        <v>10.71428571428565</v>
       </c>
       <c r="L38" t="n">
         <v>6.017000000000001</v>
@@ -2217,7 +2239,7 @@
         <v>1.740000000000002</v>
       </c>
       <c r="K39" t="n">
-        <v>-6.306306306306335</v>
+        <v>21.56862745098029</v>
       </c>
       <c r="L39" t="n">
         <v>6.021000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>1.750000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>-9.259259259259226</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L40" t="n">
         <v>6.033000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>1.760000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.666666666666689</v>
+        <v>-2.439024390244061</v>
       </c>
       <c r="L41" t="n">
         <v>6.037000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>1.770000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.970297029702993</v>
+        <v>-41.93548387096752</v>
       </c>
       <c r="L42" t="n">
         <v>6.035000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>1.800000000000003</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>-3.999999999999886</v>
       </c>
       <c r="L43" t="n">
         <v>6.025000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>1.820000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>-11.11111111111116</v>
+        <v>14.2857142857138</v>
       </c>
       <c r="L44" t="n">
         <v>6.022000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>1.910000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>-14.89361702127664</v>
+        <v>-43.99999999999966</v>
       </c>
       <c r="L45" t="n">
         <v>6.016</v>
@@ -2574,7 +2596,7 @@
         <v>1.920000000000003</v>
       </c>
       <c r="K46" t="n">
-        <v>-22.22222222222221</v>
+        <v>-39.13043478260826</v>
       </c>
       <c r="L46" t="n">
         <v>6.004</v>
@@ -2625,7 +2647,7 @@
         <v>1.920000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-17.64705882352942</v>
+        <v>-59.99999999999947</v>
       </c>
       <c r="L47" t="n">
         <v>5.994999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>1.950000000000004</v>
       </c>
       <c r="K48" t="n">
-        <v>-12.64367816091946</v>
+        <v>-33.33333333333277</v>
       </c>
       <c r="L48" t="n">
         <v>5.985999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>2.010000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>3.529411764705801</v>
+        <v>-7.69230769230785</v>
       </c>
       <c r="L49" t="n">
         <v>5.984999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>2.020000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>13.9240506329113</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>5.983999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>2.030000000000004</v>
       </c>
       <c r="K51" t="n">
-        <v>6.849315068493114</v>
+        <v>7.69230769230785</v>
       </c>
       <c r="L51" t="n">
         <v>5.984999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>2.040000000000004</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.449275362318934</v>
+        <v>-8.333333333333487</v>
       </c>
       <c r="L52" t="n">
         <v>5.985999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>2.050000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>-18.64406779660996</v>
+        <v>4.34782608695679</v>
       </c>
       <c r="L53" t="n">
         <v>5.984999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>2.050000000000005</v>
       </c>
       <c r="K54" t="n">
-        <v>-3.999999999999886</v>
+        <v>71.42857142857106</v>
       </c>
       <c r="L54" t="n">
         <v>5.985999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>2.050000000000005</v>
       </c>
       <c r="K55" t="n">
-        <v>9.090909090909017</v>
+        <v>84.61538461538377</v>
       </c>
       <c r="L55" t="n">
         <v>5.995999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>2.050000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>-2.564102564102483</v>
+        <v>84.61538461538377</v>
       </c>
       <c r="L56" t="n">
         <v>6.006999999999998</v>
@@ -3135,7 +3157,7 @@
         <v>2.050000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>5.555555555555624</v>
+        <v>79.99999999999893</v>
       </c>
       <c r="L57" t="n">
         <v>6.017999999999998</v>
@@ -3186,7 +3208,7 @@
         <v>2.060000000000006</v>
       </c>
       <c r="K58" t="n">
-        <v>-5.882352941176532</v>
+        <v>19.99999999999858</v>
       </c>
       <c r="L58" t="n">
         <v>6.024999999999997</v>
@@ -3288,7 +3310,7 @@
         <v>2.080000000000005</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.090909090909092</v>
+        <v>-59.99999999999858</v>
       </c>
       <c r="L60" t="n">
         <v>6.023999999999996</v>
@@ -3339,7 +3361,7 @@
         <v>2.130000000000005</v>
       </c>
       <c r="K61" t="n">
-        <v>-18.91891891891866</v>
+        <v>-77.77777777777646</v>
       </c>
       <c r="L61" t="n">
         <v>6.015999999999996</v>
@@ -3390,7 +3412,7 @@
         <v>2.170000000000005</v>
       </c>
       <c r="K62" t="n">
-        <v>-4.999999999999867</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>6.012999999999996</v>
@@ -3441,7 +3463,7 @@
         <v>2.210000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>-21.95121951219498</v>
+        <v>-50</v>
       </c>
       <c r="L63" t="n">
         <v>6.004999999999997</v>
@@ -3492,7 +3514,7 @@
         <v>2.210000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>-17.94871794871773</v>
+        <v>-50</v>
       </c>
       <c r="L64" t="n">
         <v>5.996999999999997</v>
@@ -3543,7 +3565,7 @@
         <v>2.270000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>22.22222222222217</v>
+        <v>-9.09090909090931</v>
       </c>
       <c r="L65" t="n">
         <v>5.994999999999997</v>
@@ -3594,7 +3616,7 @@
         <v>2.340000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>4.761904761904863</v>
+        <v>-31.03448275862073</v>
       </c>
       <c r="L66" t="n">
         <v>5.985999999999997</v>
@@ -3645,7 +3667,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>16.66666666666666</v>
+        <v>-5.882352941176379</v>
       </c>
       <c r="L67" t="n">
         <v>5.982999999999997</v>
@@ -3696,7 +3718,7 @@
         <v>2.440000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>2.040816326530568</v>
+        <v>-15.7894736842105</v>
       </c>
       <c r="L68" t="n">
         <v>5.976999999999997</v>
@@ -3747,7 +3769,7 @@
         <v>2.490000000000004</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2.43902439024386</v>
       </c>
       <c r="L69" t="n">
         <v>5.975999999999997</v>
@@ -3798,7 +3820,7 @@
         <v>2.490000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>-2.127659574468037</v>
+        <v>16.66666666666663</v>
       </c>
       <c r="L70" t="n">
         <v>5.976999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-2.12765957446823</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L71" t="n">
         <v>5.983999999999997</v>
@@ -3900,7 +3922,7 @@
         <v>2.510000000000003</v>
       </c>
       <c r="K72" t="n">
-        <v>-2.127659574468045</v>
+        <v>20</v>
       </c>
       <c r="L72" t="n">
         <v>5.985999999999998</v>
@@ -3951,7 +3973,7 @@
         <v>2.520000000000003</v>
       </c>
       <c r="K73" t="n">
-        <v>-6.382978723404335</v>
+        <v>16.12903225806457</v>
       </c>
       <c r="L73" t="n">
         <v>5.990999999999998</v>
@@ -4002,7 +4024,7 @@
         <v>2.570000000000003</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.38461538461546</v>
+        <v>-20</v>
       </c>
       <c r="L74" t="n">
         <v>5.990999999999998</v>
@@ -4053,7 +4075,7 @@
         <v>2.570000000000003</v>
       </c>
       <c r="K75" t="n">
-        <v>-15.38461538461546</v>
+        <v>4.347826086956454</v>
       </c>
       <c r="L75" t="n">
         <v>5.984999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>2.620000000000003</v>
       </c>
       <c r="K76" t="n">
-        <v>-5.263157894736907</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>5.991</v>
@@ -4155,7 +4177,7 @@
         <v>2.670000000000003</v>
       </c>
       <c r="K77" t="n">
-        <v>3.225806451612848</v>
+        <v>39.13043478260887</v>
       </c>
       <c r="L77" t="n">
         <v>5.996</v>
@@ -4206,7 +4228,7 @@
         <v>2.760000000000002</v>
       </c>
       <c r="K78" t="n">
-        <v>17.14285714285724</v>
+        <v>48.14814814814834</v>
       </c>
       <c r="L78" t="n">
         <v>6.013999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>2.760000000000002</v>
       </c>
       <c r="K79" t="n">
-        <v>17.14285714285724</v>
+        <v>48.14814814814834</v>
       </c>
       <c r="L79" t="n">
         <v>6.026999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>2.760000000000002</v>
       </c>
       <c r="K80" t="n">
-        <v>20.58823529411769</v>
+        <v>46.15384615384639</v>
       </c>
       <c r="L80" t="n">
         <v>6.039999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>2.780000000000003</v>
       </c>
       <c r="K81" t="n">
-        <v>32.30769230769241</v>
+        <v>55.55555555555578</v>
       </c>
       <c r="L81" t="n">
         <v>6.053999999999999</v>
@@ -4410,7 +4432,7 @@
         <v>2.800000000000003</v>
       </c>
       <c r="K82" t="n">
-        <v>23.8095238095238</v>
+        <v>49.99999999999984</v>
       </c>
       <c r="L82" t="n">
         <v>6.066999999999999</v>
@@ -4461,7 +4483,7 @@
         <v>2.820000000000004</v>
       </c>
       <c r="K83" t="n">
-        <v>34.4262295081968</v>
+        <v>83.99999999999969</v>
       </c>
       <c r="L83" t="n">
         <v>6.083</v>
@@ -4512,7 +4534,7 @@
         <v>2.820000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>34.4262295081968</v>
+        <v>83.99999999999969</v>
       </c>
       <c r="L84" t="n">
         <v>6.103999999999999</v>
@@ -4563,7 +4585,7 @@
         <v>2.820000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>27.27272727272739</v>
+        <v>79.99999999999964</v>
       </c>
       <c r="L85" t="n">
         <v>6.124999999999998</v>
@@ -4614,7 +4636,7 @@
         <v>2.840000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>47.99999999999995</v>
+        <v>76.47058823529369</v>
       </c>
       <c r="L86" t="n">
         <v>6.142999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>2.870000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>44.6808510638298</v>
+        <v>63.63636363636319</v>
       </c>
       <c r="L87" t="n">
         <v>6.158999999999997</v>
@@ -4716,7 +4738,7 @@
         <v>2.920000000000003</v>
       </c>
       <c r="K88" t="n">
-        <v>62.50000000000002</v>
+        <v>74.99999999999959</v>
       </c>
       <c r="L88" t="n">
         <v>6.170999999999998</v>
@@ -4767,7 +4789,7 @@
         <v>2.970000000000003</v>
       </c>
       <c r="K89" t="n">
-        <v>41.66666666666675</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>6.177999999999997</v>
@@ -4818,7 +4840,7 @@
         <v>2.980000000000003</v>
       </c>
       <c r="K90" t="n">
-        <v>38.77551020408176</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>6.183999999999997</v>
@@ -4869,7 +4891,7 @@
         <v>3.030000000000003</v>
       </c>
       <c r="K91" t="n">
-        <v>24.52830188679263</v>
+        <v>4.347826086956824</v>
       </c>
       <c r="L91" t="n">
         <v>6.182999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>3.080000000000003</v>
       </c>
       <c r="K92" t="n">
-        <v>33.33333333333344</v>
+        <v>15.38461538461546</v>
       </c>
       <c r="L92" t="n">
         <v>6.188999999999998</v>
@@ -4971,7 +4993,7 @@
         <v>3.090000000000003</v>
       </c>
       <c r="K93" t="n">
-        <v>36.84210526315793</v>
+        <v>18.51851851851854</v>
       </c>
       <c r="L93" t="n">
         <v>6.193999999999998</v>
@@ -5022,7 +5044,7 @@
         <v>3.130000000000003</v>
       </c>
       <c r="K94" t="n">
-        <v>39.28571428571427</v>
+        <v>3.225806451612848</v>
       </c>
       <c r="L94" t="n">
         <v>6.194999999999999</v>
@@ -5073,7 +5095,7 @@
         <v>3.170000000000003</v>
       </c>
       <c r="K95" t="n">
-        <v>43.33333333333332</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L95" t="n">
         <v>6.199999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K96" t="n">
-        <v>41.37931034482762</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L96" t="n">
         <v>6.205999999999998</v>
@@ -5175,7 +5197,7 @@
         <v>3.200000000000003</v>
       </c>
       <c r="K97" t="n">
-        <v>35.84905660377365</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L97" t="n">
         <v>6.208999999999998</v>
@@ -5226,7 +5248,7 @@
         <v>3.240000000000003</v>
       </c>
       <c r="K98" t="n">
-        <v>12.50000000000009</v>
+        <v>-3.70370370370363</v>
       </c>
       <c r="L98" t="n">
         <v>6.202999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>3.270000000000003</v>
       </c>
       <c r="K99" t="n">
-        <v>17.64705882352953</v>
+        <v>10.34482758620698</v>
       </c>
       <c r="L99" t="n">
         <v>6.204999999999997</v>
@@ -5328,7 +5350,7 @@
         <v>3.300000000000002</v>
       </c>
       <c r="K100" t="n">
-        <v>22.22222222222224</v>
+        <v>40.74074074074059</v>
       </c>
       <c r="L100" t="n">
         <v>6.210999999999997</v>
@@ -5379,7 +5401,7 @@
         <v>3.350000000000002</v>
       </c>
       <c r="K101" t="n">
-        <v>8.771929824561383</v>
+        <v>3.70370370370363</v>
       </c>
       <c r="L101" t="n">
         <v>6.216999999999997</v>
@@ -5430,7 +5452,7 @@
         <v>3.390000000000002</v>
       </c>
       <c r="K102" t="n">
-        <v>18.64406779661025</v>
+        <v>13.33333333333335</v>
       </c>
       <c r="L102" t="n">
         <v>6.221999999999996</v>
@@ -5481,7 +5503,7 @@
         <v>3.440000000000002</v>
       </c>
       <c r="K103" t="n">
-        <v>6.45161290322583</v>
+        <v>9.677419354838802</v>
       </c>
       <c r="L103" t="n">
         <v>6.220999999999996</v>
@@ -5532,7 +5554,7 @@
         <v>3.470000000000002</v>
       </c>
       <c r="K104" t="n">
-        <v>10.76923076923084</v>
+        <v>6.666666666666825</v>
       </c>
       <c r="L104" t="n">
         <v>6.226999999999995</v>
@@ -5583,7 +5605,7 @@
         <v>3.470000000000002</v>
       </c>
       <c r="K105" t="n">
-        <v>10.76923076923084</v>
+        <v>-3.70370370370363</v>
       </c>
       <c r="L105" t="n">
         <v>6.228999999999996</v>
@@ -5634,7 +5656,7 @@
         <v>3.540000000000003</v>
       </c>
       <c r="K106" t="n">
-        <v>-2.857142857142799</v>
+        <v>-23.52941176470591</v>
       </c>
       <c r="L106" t="n">
         <v>6.220999999999996</v>
@@ -5685,7 +5707,7 @@
         <v>3.550000000000002</v>
       </c>
       <c r="K107" t="n">
-        <v>-5.882352941176486</v>
+        <v>-9.677419354838802</v>
       </c>
       <c r="L107" t="n">
         <v>6.213999999999995</v>
@@ -5736,7 +5758,7 @@
         <v>3.570000000000002</v>
       </c>
       <c r="K108" t="n">
-        <v>-16.92307692307687</v>
+        <v>-26.66666666666678</v>
       </c>
       <c r="L108" t="n">
         <v>6.208999999999994</v>
@@ -5787,7 +5809,7 @@
         <v>3.590000000000003</v>
       </c>
       <c r="K109" t="n">
-        <v>-12.90322580645164</v>
+        <v>-44.82758620689651</v>
       </c>
       <c r="L109" t="n">
         <v>6.198999999999994</v>
@@ -5838,7 +5860,7 @@
         <v>3.610000000000003</v>
       </c>
       <c r="K110" t="n">
-        <v>-7.93650793650791</v>
+        <v>-23.07692307692287</v>
       </c>
       <c r="L110" t="n">
         <v>6.187999999999994</v>
@@ -5889,7 +5911,7 @@
         <v>3.700000000000003</v>
       </c>
       <c r="K111" t="n">
-        <v>13.4328358208955</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L111" t="n">
         <v>6.190999999999995</v>
@@ -5940,7 +5962,7 @@
         <v>3.780000000000003</v>
       </c>
       <c r="K112" t="n">
-        <v>-5.714285714285718</v>
+        <v>-11.76470588235293</v>
       </c>
       <c r="L112" t="n">
         <v>6.181999999999995</v>
@@ -5991,7 +6013,7 @@
         <v>3.840000000000003</v>
       </c>
       <c r="K113" t="n">
-        <v>1.333333333333305</v>
+        <v>-2.702702702702884</v>
       </c>
       <c r="L113" t="n">
         <v>6.183999999999995</v>
@@ -6042,7 +6064,7 @@
         <v>3.860000000000002</v>
       </c>
       <c r="K114" t="n">
-        <v>4.109589041095927</v>
+        <v>-7.692307692307762</v>
       </c>
       <c r="L114" t="n">
         <v>6.180999999999995</v>
@@ -6093,7 +6115,7 @@
         <v>3.870000000000002</v>
       </c>
       <c r="K115" t="n">
-        <v>-2.857142857142799</v>
+        <v>9.090909090909188</v>
       </c>
       <c r="L115" t="n">
         <v>6.176999999999994</v>
@@ -6144,7 +6166,7 @@
         <v>3.890000000000001</v>
       </c>
       <c r="K116" t="n">
-        <v>-4.347826086956567</v>
+        <v>11.76470588235299</v>
       </c>
       <c r="L116" t="n">
         <v>6.181999999999993</v>
@@ -6195,7 +6217,7 @@
         <v>3.900000000000001</v>
       </c>
       <c r="K117" t="n">
-        <v>-2.85714285714293</v>
+        <v>21.21212121212108</v>
       </c>
       <c r="L117" t="n">
         <v>6.186999999999993</v>
@@ -6246,7 +6268,7 @@
         <v>3.910000000000001</v>
       </c>
       <c r="K118" t="n">
-        <v>1.492537313432808</v>
+        <v>25.00000000000014</v>
       </c>
       <c r="L118" t="n">
         <v>6.192999999999993</v>
@@ -6297,7 +6319,7 @@
         <v>3.920000000000001</v>
       </c>
       <c r="K119" t="n">
-        <v>-1.538461538461648</v>
+        <v>22.58064516129028</v>
       </c>
       <c r="L119" t="n">
         <v>6.201999999999993</v>
@@ -6348,7 +6370,7 @@
         <v>3.94</v>
       </c>
       <c r="K120" t="n">
-        <v>-9.37499999999997</v>
+        <v>-16.66666666666685</v>
       </c>
       <c r="L120" t="n">
         <v>6.206999999999993</v>
@@ -6399,7 +6421,7 @@
         <v>3.94</v>
       </c>
       <c r="K121" t="n">
-        <v>-1.694915254237258</v>
+        <v>25.00000000000042</v>
       </c>
       <c r="L121" t="n">
         <v>6.202999999999992</v>
@@ -6450,7 +6472,7 @@
         <v>3.94</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L122" t="n">
         <v>6.206999999999992</v>
@@ -6552,7 +6574,7 @@
         <v>3.94</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.382978723404335</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L124" t="n">
         <v>6.204999999999993</v>
@@ -6603,7 +6625,7 @@
         <v>3.96</v>
       </c>
       <c r="K125" t="n">
-        <v>-2.04081632653076</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L125" t="n">
         <v>6.207999999999993</v>
@@ -6654,7 +6676,7 @@
         <v>3.96</v>
       </c>
       <c r="K126" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>6.208999999999993</v>
@@ -6705,7 +6727,7 @@
         <v>3.97</v>
       </c>
       <c r="K127" t="n">
-        <v>9.523809523809595</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>6.207999999999993</v>
@@ -6756,7 +6778,7 @@
         <v>3.97</v>
       </c>
       <c r="K128" t="n">
-        <v>14.99999999999999</v>
+        <v>-20</v>
       </c>
       <c r="L128" t="n">
         <v>6.207999999999992</v>
@@ -6807,7 +6829,7 @@
         <v>3.98</v>
       </c>
       <c r="K129" t="n">
-        <v>17.94871794871816</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>6.205999999999992</v>
@@ -6858,7 +6880,7 @@
         <v>3.98</v>
       </c>
       <c r="K130" t="n">
-        <v>13.51351351351359</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>6.205999999999992</v>
@@ -6909,7 +6931,7 @@
         <v>4</v>
       </c>
       <c r="K131" t="n">
-        <v>-20.00000000000036</v>
+        <v>-33.33333333333432</v>
       </c>
       <c r="L131" t="n">
         <v>6.203999999999992</v>
@@ -6960,7 +6982,7 @@
         <v>4.029999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>-3.999999999999972</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L132" t="n">
         <v>6.198999999999993</v>
@@ -7011,7 +7033,7 @@
         <v>4.039999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>-30.00000000000031</v>
+        <v>-40.00000000000053</v>
       </c>
       <c r="L133" t="n">
         <v>6.194999999999991</v>
@@ -7062,7 +7084,7 @@
         <v>4.049999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>-15.78947368421092</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L134" t="n">
         <v>6.191999999999991</v>
@@ -7113,7 +7135,7 @@
         <v>4.049999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>-11.11111111111155</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L135" t="n">
         <v>6.186999999999992</v>
@@ -7164,7 +7186,7 @@
         <v>4.059999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>-29.41176470588272</v>
+        <v>-55.55555555555599</v>
       </c>
       <c r="L136" t="n">
         <v>6.180999999999992</v>
@@ -7215,7 +7237,7 @@
         <v>4.099999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>-9.999999999999911</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L137" t="n">
         <v>6.179999999999992</v>
@@ -7266,7 +7288,7 @@
         <v>4.099999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>-5.263157894736794</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
         <v>6.178999999999991</v>
@@ -7317,7 +7339,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>-15.78947368421038</v>
+        <v>-7.692307692307587</v>
       </c>
       <c r="L139" t="n">
         <v>6.177999999999992</v>
@@ -7368,7 +7390,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>-5.88235294117641</v>
+        <v>9.090909090909825</v>
       </c>
       <c r="L140" t="n">
         <v>6.176999999999991</v>
@@ -7419,7 +7441,7 @@
         <v>4.109999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>-5.88235294117641</v>
+        <v>50.00000000000055</v>
       </c>
       <c r="L141" t="n">
         <v>6.177999999999991</v>
@@ -7470,7 +7492,7 @@
         <v>4.119999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>-11.11111111111144</v>
+        <v>24.99999999999945</v>
       </c>
       <c r="L142" t="n">
         <v>6.180999999999991</v>
@@ -7521,7 +7543,7 @@
         <v>4.139999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>-20.00000000000018</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L143" t="n">
         <v>6.180999999999992</v>
@@ -7572,7 +7594,7 @@
         <v>4.159999999999998</v>
       </c>
       <c r="K144" t="n">
-        <v>-9.090909090909385</v>
+        <v>9.090909090908944</v>
       </c>
       <c r="L144" t="n">
         <v>6.181999999999992</v>
@@ -7623,7 +7645,7 @@
         <v>4.169999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>-14.28571428571404</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L145" t="n">
         <v>6.183999999999992</v>
@@ -7674,7 +7696,7 @@
         <v>4.169999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>-14.28571428571404</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L146" t="n">
         <v>6.186999999999992</v>
@@ -7725,7 +7747,7 @@
         <v>4.169999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>-9.999999999999822</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L147" t="n">
         <v>6.185999999999991</v>
@@ -7776,7 +7798,7 @@
         <v>4.209999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>-24.99999999999991</v>
+        <v>-39.99999999999982</v>
       </c>
       <c r="L148" t="n">
         <v>6.180999999999992</v>
@@ -7827,7 +7849,7 @@
         <v>4.219999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>-16.66666666666673</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L149" t="n">
         <v>6.177999999999992</v>
@@ -7878,7 +7900,7 @@
         <v>4.219999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>-16.66666666666673</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L150" t="n">
         <v>6.174999999999992</v>
@@ -7929,7 +7951,7 @@
         <v>4.249999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>4.000000000000284</v>
+        <v>7.692307692308217</v>
       </c>
       <c r="L151" t="n">
         <v>6.174999999999992</v>
@@ -7980,7 +8002,7 @@
         <v>4.27</v>
       </c>
       <c r="K152" t="n">
-        <v>8.333333333333147</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L152" t="n">
         <v>6.173999999999991</v>
@@ -8031,7 +8053,7 @@
         <v>4.279999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>8.333333333333147</v>
+        <v>0</v>
       </c>
       <c r="L153" t="n">
         <v>6.175999999999992</v>
@@ -8082,7 +8104,7 @@
         <v>4.29</v>
       </c>
       <c r="K154" t="n">
-        <v>8.333333333333487</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>6.176999999999992</v>
@@ -8133,7 +8155,7 @@
         <v>4.3</v>
       </c>
       <c r="K155" t="n">
-        <v>12.00000000000006</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L155" t="n">
         <v>6.177999999999992</v>
@@ -8184,7 +8206,7 @@
         <v>4.3</v>
       </c>
       <c r="K156" t="n">
-        <v>16.6666666666666</v>
+        <v>7.692307692307482</v>
       </c>
       <c r="L156" t="n">
         <v>6.178999999999992</v>
@@ -8235,7 +8257,7 @@
         <v>4.31</v>
       </c>
       <c r="K157" t="n">
-        <v>-4.761904761904641</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L157" t="n">
         <v>6.178999999999992</v>
@@ -8286,7 +8308,7 @@
         <v>4.319999999999999</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L158" t="n">
         <v>6.183999999999992</v>
@@ -8337,7 +8359,7 @@
         <v>4.319999999999999</v>
       </c>
       <c r="K159" t="n">
-        <v>4.761904761904641</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L159" t="n">
         <v>6.187999999999993</v>
@@ -8439,7 +8461,7 @@
         <v>4.34</v>
       </c>
       <c r="K161" t="n">
-        <v>-4.34782608695679</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L161" t="n">
         <v>6.189999999999992</v>
@@ -8490,7 +8512,7 @@
         <v>4.36</v>
       </c>
       <c r="K162" t="n">
-        <v>8.333333333333487</v>
+        <v>25.00000000000028</v>
       </c>
       <c r="L162" t="n">
         <v>6.192999999999993</v>
@@ -8541,7 +8563,7 @@
         <v>4.36</v>
       </c>
       <c r="K163" t="n">
-        <v>18.18181818181807</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L163" t="n">
         <v>6.194999999999992</v>
@@ -8592,7 +8614,7 @@
         <v>4.36</v>
       </c>
       <c r="K164" t="n">
-        <v>10.00000000000013</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>6.195999999999993</v>
@@ -8643,7 +8665,7 @@
         <v>4.36</v>
       </c>
       <c r="K165" t="n">
-        <v>5.263157894736695</v>
+        <v>0</v>
       </c>
       <c r="L165" t="n">
         <v>6.195999999999993</v>
@@ -8694,7 +8716,7 @@
         <v>4.36</v>
       </c>
       <c r="K166" t="n">
-        <v>5.263157894736695</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L166" t="n">
         <v>6.195999999999993</v>
@@ -8745,7 +8767,7 @@
         <v>4.37</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L167" t="n">
         <v>6.195999999999993</v>
@@ -8796,7 +8818,7 @@
         <v>4.38</v>
       </c>
       <c r="K168" t="n">
-        <v>29.41176470588211</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>6.195999999999993</v>
@@ -8847,7 +8869,7 @@
         <v>4.4</v>
       </c>
       <c r="K169" t="n">
-        <v>11.11111111111078</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L169" t="n">
         <v>6.193999999999993</v>
@@ -8898,7 +8920,7 @@
         <v>4.410000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>15.78947368421048</v>
+        <v>14.28571428571501</v>
       </c>
       <c r="L170" t="n">
         <v>6.193999999999993</v>
@@ -8949,7 +8971,7 @@
         <v>4.420000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>5.882352941176286</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>6.195999999999993</v>
@@ -9000,7 +9022,7 @@
         <v>4.420000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>6.195999999999993</v>
@@ -9051,7 +9073,7 @@
         <v>4.420000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>14.28571428571447</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>6.195999999999993</v>
@@ -9102,7 +9124,7 @@
         <v>4.420000000000001</v>
       </c>
       <c r="K174" t="n">
-        <v>7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>6.195999999999993</v>
@@ -9153,7 +9175,7 @@
         <v>4.430000000000001</v>
       </c>
       <c r="K175" t="n">
-        <v>-7.692307692307482</v>
+        <v>-14.28571428571392</v>
       </c>
       <c r="L175" t="n">
         <v>6.194999999999991</v>
@@ -9204,7 +9226,7 @@
         <v>4.430000000000001</v>
       </c>
       <c r="K176" t="n">
-        <v>-7.692307692307482</v>
+        <v>0</v>
       </c>
       <c r="L176" t="n">
         <v>6.193999999999991</v>
@@ -9255,7 +9277,7 @@
         <v>4.430000000000001</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>-19.99999999999929</v>
       </c>
       <c r="L177" t="n">
         <v>6.193999999999991</v>
@@ -9306,7 +9328,7 @@
         <v>4.44</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>50.00000000000111</v>
       </c>
       <c r="L178" t="n">
         <v>6.193999999999991</v>
@@ -9357,7 +9379,7 @@
         <v>4.44</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>6.195999999999992</v>
@@ -9408,7 +9430,7 @@
         <v>4.44</v>
       </c>
       <c r="K180" t="n">
-        <v>9.090909090908797</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>6.196999999999991</v>
@@ -9459,7 +9481,7 @@
         <v>4.44</v>
       </c>
       <c r="K181" t="n">
-        <v>20.00000000000036</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>6.196999999999991</v>
@@ -9561,7 +9583,7 @@
         <v>4.45</v>
       </c>
       <c r="K183" t="n">
-        <v>-11.11111111111089</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>6.195999999999991</v>
@@ -9612,7 +9634,7 @@
         <v>4.460000000000001</v>
       </c>
       <c r="K184" t="n">
-        <v>-20.00000000000036</v>
+        <v>-33.33333333333531</v>
       </c>
       <c r="L184" t="n">
         <v>6.19399999999999</v>
@@ -9663,7 +9685,7 @@
         <v>4.480000000000001</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>19.99999999999929</v>
       </c>
       <c r="L185" t="n">
         <v>6.194999999999991</v>
@@ -9714,7 +9736,7 @@
         <v>4.500000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>-14.28571428571447</v>
+        <v>-14.28571428571501</v>
       </c>
       <c r="L186" t="n">
         <v>6.193999999999991</v>
@@ -9765,7 +9787,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L187" t="n">
         <v>6.193999999999991</v>
@@ -9816,7 +9838,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K188" t="n">
-        <v>-7.692307692307376</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L188" t="n">
         <v>6.192999999999991</v>
@@ -9867,7 +9889,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K189" t="n">
-        <v>9.09090909090953</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L189" t="n">
         <v>6.19199999999999</v>
@@ -9918,7 +9940,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K190" t="n">
-        <v>0</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L190" t="n">
         <v>6.19099999999999</v>
@@ -9969,7 +9991,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K191" t="n">
-        <v>-11.11111111111067</v>
+        <v>-14.28571428571356</v>
       </c>
       <c r="L191" t="n">
         <v>6.189999999999989</v>
@@ -10020,7 +10042,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K192" t="n">
-        <v>-11.11111111111067</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>6.188999999999989</v>
@@ -10071,7 +10093,7 @@
         <v>4.510000000000002</v>
       </c>
       <c r="K193" t="n">
-        <v>-11.11111111111067</v>
+        <v>20.00000000000071</v>
       </c>
       <c r="L193" t="n">
         <v>6.188999999999989</v>
@@ -10122,7 +10144,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K194" t="n">
-        <v>-38.46153846153783</v>
+        <v>-71.42857142856998</v>
       </c>
       <c r="L194" t="n">
         <v>6.185999999999989</v>
@@ -10173,7 +10195,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K195" t="n">
-        <v>-33.33333333333284</v>
+        <v>-59.99999999999787</v>
       </c>
       <c r="L195" t="n">
         <v>6.180999999999989</v>
@@ -10224,7 +10246,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K196" t="n">
-        <v>-33.33333333333284</v>
+        <v>-100</v>
       </c>
       <c r="L196" t="n">
         <v>6.177999999999989</v>
@@ -10275,7 +10297,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333284</v>
+        <v>-100</v>
       </c>
       <c r="L197" t="n">
         <v>6.17399999999999</v>
@@ -10326,7 +10348,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K198" t="n">
-        <v>-45.45454545454442</v>
+        <v>-100</v>
       </c>
       <c r="L198" t="n">
         <v>6.16999999999999</v>
@@ -10377,7 +10399,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K199" t="n">
-        <v>-45.45454545454442</v>
+        <v>-100</v>
       </c>
       <c r="L199" t="n">
         <v>6.165999999999991</v>
@@ -10428,7 +10450,7 @@
         <v>4.550000000000002</v>
       </c>
       <c r="K200" t="n">
-        <v>-45.45454545454442</v>
+        <v>-100</v>
       </c>
       <c r="L200" t="n">
         <v>6.161999999999992</v>
@@ -10479,7 +10501,7 @@
         <v>4.590000000000003</v>
       </c>
       <c r="K201" t="n">
-        <v>-6.666666666666429</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>6.161999999999992</v>
@@ -10530,7 +10552,7 @@
         <v>4.610000000000003</v>
       </c>
       <c r="K202" t="n">
-        <v>-17.64705882352929</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L202" t="n">
         <v>6.159999999999992</v>
@@ -10581,7 +10603,7 @@
         <v>4.620000000000003</v>
       </c>
       <c r="K203" t="n">
-        <v>-17.64705882352929</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L203" t="n">
         <v>6.156999999999992</v>
@@ -10632,7 +10654,7 @@
         <v>4.620000000000003</v>
       </c>
       <c r="K204" t="n">
-        <v>-12.49999999999958</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L204" t="n">
         <v>6.157999999999992</v>
@@ -10683,7 +10705,7 @@
         <v>4.640000000000003</v>
       </c>
       <c r="K205" t="n">
-        <v>-37.49999999999986</v>
+        <v>-11.11111111111177</v>
       </c>
       <c r="L205" t="n">
         <v>6.156999999999991</v>
@@ -10734,7 +10756,7 @@
         <v>4.650000000000003</v>
       </c>
       <c r="K206" t="n">
-        <v>-33.33333333333294</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L206" t="n">
         <v>6.154999999999992</v>
@@ -10785,7 +10807,7 @@
         <v>4.650000000000003</v>
       </c>
       <c r="K207" t="n">
-        <v>-42.85714285714304</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L207" t="n">
         <v>6.152999999999992</v>
@@ -10836,7 +10858,7 @@
         <v>4.650000000000003</v>
       </c>
       <c r="K208" t="n">
-        <v>-42.85714285714304</v>
+        <v>-20.00000000000036</v>
       </c>
       <c r="L208" t="n">
         <v>6.150999999999993</v>
@@ -10887,7 +10909,7 @@
         <v>4.660000000000003</v>
       </c>
       <c r="K209" t="n">
-        <v>-46.66666666666674</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L209" t="n">
         <v>6.147999999999993</v>
@@ -10938,7 +10960,7 @@
         <v>4.670000000000003</v>
       </c>
       <c r="K210" t="n">
-        <v>-37.50000000000028</v>
+        <v>-75.00000000000055</v>
       </c>
       <c r="L210" t="n">
         <v>6.145999999999993</v>
@@ -10989,7 +11011,7 @@
         <v>4.680000000000002</v>
       </c>
       <c r="K211" t="n">
-        <v>-41.17647058823548</v>
+        <v>-71.4285714285718</v>
       </c>
       <c r="L211" t="n">
         <v>6.138999999999993</v>
@@ -11040,7 +11062,7 @@
         <v>4.690000000000002</v>
       </c>
       <c r="K212" t="n">
-        <v>-33.33333333333366</v>
+        <v>-42.85714285714358</v>
       </c>
       <c r="L212" t="n">
         <v>6.134999999999993</v>
@@ -11091,7 +11113,7 @@
         <v>4.710000000000003</v>
       </c>
       <c r="K213" t="n">
-        <v>-20</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L213" t="n">
         <v>6.133999999999993</v>
@@ -11142,7 +11164,7 @@
         <v>4.730000000000003</v>
       </c>
       <c r="K214" t="n">
-        <v>-11.11111111111133</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L214" t="n">
         <v>6.130999999999993</v>
@@ -11193,7 +11215,7 @@
         <v>4.740000000000003</v>
       </c>
       <c r="K215" t="n">
-        <v>-15.78947368421063</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L215" t="n">
         <v>6.128999999999993</v>
@@ -11244,7 +11266,7 @@
         <v>4.750000000000003</v>
       </c>
       <c r="K216" t="n">
-        <v>-10.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>6.128999999999992</v>
@@ -11295,7 +11317,7 @@
         <v>4.750000000000003</v>
       </c>
       <c r="K217" t="n">
-        <v>-10.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>6.128999999999992</v>
@@ -11346,7 +11368,7 @@
         <v>4.760000000000002</v>
       </c>
       <c r="K218" t="n">
-        <v>-14.28571428571441</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>6.127999999999992</v>
@@ -11397,7 +11419,7 @@
         <v>4.770000000000002</v>
       </c>
       <c r="K219" t="n">
-        <v>-9.09090909090931</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>6.128999999999992</v>
@@ -11448,7 +11470,7 @@
         <v>4.770000000000002</v>
       </c>
       <c r="K220" t="n">
-        <v>-9.09090909090931</v>
+        <v>11.11111111111089</v>
       </c>
       <c r="L220" t="n">
         <v>6.128999999999992</v>
@@ -11499,7 +11521,7 @@
         <v>4.800000000000002</v>
       </c>
       <c r="K221" t="n">
-        <v>-14.28571428571441</v>
+        <v>27.27272727272742</v>
       </c>
       <c r="L221" t="n">
         <v>6.132999999999994</v>
@@ -11550,7 +11572,7 @@
         <v>4.830000000000003</v>
       </c>
       <c r="K222" t="n">
-        <v>-18.18181818181822</v>
+        <v>-16.66666666666704</v>
       </c>
       <c r="L222" t="n">
         <v>6.132999999999994</v>
@@ -11601,7 +11623,7 @@
         <v>4.860000000000003</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>23.07692307692329</v>
       </c>
       <c r="L223" t="n">
         <v>6.133999999999994</v>
@@ -11652,7 +11674,7 @@
         <v>4.890000000000003</v>
       </c>
       <c r="K224" t="n">
-        <v>-11.11111111111118</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L224" t="n">
         <v>6.133999999999994</v>
@@ -11703,7 +11725,7 @@
         <v>4.900000000000003</v>
       </c>
       <c r="K225" t="n">
-        <v>0</v>
+        <v>6.666666666666508</v>
       </c>
       <c r="L225" t="n">
         <v>6.135999999999994</v>
@@ -11754,7 +11776,7 @@
         <v>4.920000000000003</v>
       </c>
       <c r="K226" t="n">
-        <v>11.11111111111118</v>
+        <v>17.64705882352947</v>
       </c>
       <c r="L226" t="n">
         <v>6.138999999999994</v>
@@ -11805,7 +11827,7 @@
         <v>4.940000000000004</v>
       </c>
       <c r="K227" t="n">
-        <v>3.448275862068881</v>
+        <v>11.11111111111078</v>
       </c>
       <c r="L227" t="n">
         <v>6.139999999999993</v>
@@ -11907,7 +11929,7 @@
         <v>4.990000000000004</v>
       </c>
       <c r="K229" t="n">
-        <v>15.15151515151505</v>
+        <v>18.18181818181807</v>
       </c>
       <c r="L229" t="n">
         <v>6.144999999999992</v>
@@ -11958,7 +11980,7 @@
         <v>5.020000000000004</v>
       </c>
       <c r="K230" t="n">
-        <v>2.857142857142784</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L230" t="n">
         <v>6.145999999999992</v>
@@ -12009,7 +12031,7 @@
         <v>5.020000000000004</v>
       </c>
       <c r="K231" t="n">
-        <v>5.882352941176317</v>
+        <v>5.263157894736695</v>
       </c>
       <c r="L231" t="n">
         <v>6.143999999999991</v>
@@ -12060,7 +12082,7 @@
         <v>5.020000000000004</v>
       </c>
       <c r="K232" t="n">
-        <v>3.030303030302949</v>
+        <v>-12.50000000000021</v>
       </c>
       <c r="L232" t="n">
         <v>6.144999999999991</v>
@@ -12111,7 +12133,7 @@
         <v>5.030000000000004</v>
       </c>
       <c r="K233" t="n">
-        <v>-6.250000000000121</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>6.141999999999991</v>
@@ -12162,7 +12184,7 @@
         <v>5.030000000000004</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>-7.692307692307482</v>
       </c>
       <c r="L234" t="n">
         <v>6.141999999999991</v>
@@ -12213,7 +12235,7 @@
         <v>5.030000000000004</v>
       </c>
       <c r="K235" t="n">
-        <v>3.448275862068881</v>
+        <v>-27.27272727272742</v>
       </c>
       <c r="L235" t="n">
         <v>6.140999999999991</v>
@@ -12264,7 +12286,7 @@
         <v>5.030000000000004</v>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L236" t="n">
         <v>6.137999999999991</v>
@@ -12315,7 +12337,7 @@
         <v>5.040000000000004</v>
       </c>
       <c r="K237" t="n">
-        <v>-3.448275862068881</v>
+        <v>-11.11111111111089</v>
       </c>
       <c r="L237" t="n">
         <v>6.135999999999991</v>
@@ -12366,7 +12388,7 @@
         <v>5.050000000000003</v>
       </c>
       <c r="K238" t="n">
-        <v>-3.448275862068881</v>
+        <v>-100</v>
       </c>
       <c r="L238" t="n">
         <v>6.133999999999991</v>
@@ -12417,7 +12439,7 @@
         <v>5.050000000000003</v>
       </c>
       <c r="K239" t="n">
-        <v>-7.142857142856962</v>
+        <v>-100</v>
       </c>
       <c r="L239" t="n">
         <v>6.127999999999991</v>
@@ -12468,7 +12490,7 @@
         <v>5.070000000000003</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L240" t="n">
         <v>6.126999999999991</v>
@@ -12519,7 +12541,7 @@
         <v>5.090000000000003</v>
       </c>
       <c r="K241" t="n">
-        <v>-17.24137931034477</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L241" t="n">
         <v>6.123999999999991</v>
@@ -12570,7 +12592,7 @@
         <v>5.150000000000003</v>
       </c>
       <c r="K242" t="n">
-        <v>-25</v>
+        <v>-66.66666666666717</v>
       </c>
       <c r="L242" t="n">
         <v>6.11499999999999</v>
@@ -12621,7 +12643,7 @@
         <v>5.160000000000003</v>
       </c>
       <c r="K243" t="n">
-        <v>-33.33333333333353</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L243" t="n">
         <v>6.107999999999991</v>
@@ -12672,7 +12694,7 @@
         <v>5.170000000000003</v>
       </c>
       <c r="K244" t="n">
-        <v>-28.57142857142867</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L244" t="n">
         <v>6.099999999999991</v>
@@ -12723,7 +12745,7 @@
         <v>5.170000000000003</v>
       </c>
       <c r="K245" t="n">
-        <v>-33.33333333333333</v>
+        <v>-57.14285714285769</v>
       </c>
       <c r="L245" t="n">
         <v>6.091999999999991</v>
@@ -12774,7 +12796,7 @@
         <v>5.170000000000003</v>
       </c>
       <c r="K246" t="n">
-        <v>-44.00000000000028</v>
+        <v>-53.84615384615448</v>
       </c>
       <c r="L246" t="n">
         <v>6.083999999999991</v>
@@ -12825,7 +12847,7 @@
         <v>5.220000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>-14.28571428571438</v>
+        <v>-5.882352941176901</v>
       </c>
       <c r="L247" t="n">
         <v>6.081999999999992</v>
@@ -12876,7 +12898,7 @@
         <v>5.250000000000003</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>9.999999999999822</v>
       </c>
       <c r="L248" t="n">
         <v>6.083999999999992</v>
@@ -12927,7 +12949,7 @@
         <v>5.250000000000003</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.38461538461546</v>
+        <v>0</v>
       </c>
       <c r="L249" t="n">
         <v>6.085999999999991</v>
@@ -12978,7 +13000,7 @@
         <v>5.280000000000003</v>
       </c>
       <c r="K250" t="n">
-        <v>-15.38461538461546</v>
+        <v>-5.263157894737187</v>
       </c>
       <c r="L250" t="n">
         <v>6.08299999999999</v>
@@ -13029,7 +13051,7 @@
         <v>5.310000000000003</v>
       </c>
       <c r="K251" t="n">
-        <v>-3.448275862068902</v>
+        <v>50</v>
       </c>
       <c r="L251" t="n">
         <v>6.084999999999991</v>
@@ -13080,7 +13102,7 @@
         <v>5.320000000000003</v>
       </c>
       <c r="K252" t="n">
-        <v>-6.666666666666549</v>
+        <v>37.50000000000028</v>
       </c>
       <c r="L252" t="n">
         <v>6.091999999999992</v>
@@ -13131,7 +13153,7 @@
         <v>5.370000000000003</v>
       </c>
       <c r="K253" t="n">
-        <v>-17.64705882352935</v>
+        <v>10.00000000000022</v>
       </c>
       <c r="L253" t="n">
         <v>6.092999999999992</v>
@@ -13182,7 +13204,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>-8.108108108108212</v>
+        <v>21.73913043478257</v>
       </c>
       <c r="L254" t="n">
         <v>6.097999999999992</v>
@@ -13233,7 +13255,7 @@
         <v>5.430000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>-14.99999999999999</v>
+        <v>7.692307692307902</v>
       </c>
       <c r="L255" t="n">
         <v>6.099999999999993</v>
@@ -13284,7 +13306,7 @@
         <v>5.480000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>-24.4444444444446</v>
+        <v>-30.76923076923082</v>
       </c>
       <c r="L256" t="n">
         <v>6.096999999999992</v>
@@ -13335,7 +13357,7 @@
         <v>5.560000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>-3.846153846153945</v>
+        <v>-9.677419354838802</v>
       </c>
       <c r="L257" t="n">
         <v>6.096999999999992</v>
@@ -13386,7 +13408,7 @@
         <v>5.570000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>-3.846153846153945</v>
+        <v>-12.50000000000004</v>
       </c>
       <c r="L258" t="n">
         <v>6.092999999999991</v>
@@ -13437,7 +13459,7 @@
         <v>5.620000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>-12.28070175438605</v>
+        <v>-17.64705882352935</v>
       </c>
       <c r="L259" t="n">
         <v>6.083999999999991</v>
@@ -13488,7 +13510,7 @@
         <v>5.630000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>-14.28571428571433</v>
+        <v>-25.00000000000014</v>
       </c>
       <c r="L260" t="n">
         <v>6.078999999999992</v>
@@ -13539,7 +13561,7 @@
         <v>5.640000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>-9.090909090909239</v>
+        <v>-18.75000000000025</v>
       </c>
       <c r="L261" t="n">
         <v>6.07199999999999</v>
@@ -13590,7 +13612,7 @@
         <v>5.660000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>-1.960784313725456</v>
+        <v>-10.34482758620704</v>
       </c>
       <c r="L262" t="n">
         <v>6.063999999999991</v>
@@ -13641,7 +13663,7 @@
         <v>5.670000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>-5.882352941176368</v>
+        <v>-25.92592592592583</v>
       </c>
       <c r="L263" t="n">
         <v>6.05999999999999</v>
@@ -13692,7 +13714,7 @@
         <v>5.670000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>-3.999999999999929</v>
+        <v>-16.66666666666673</v>
       </c>
       <c r="L264" t="n">
         <v>6.052999999999989</v>
@@ -13743,7 +13765,7 @@
         <v>5.670000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>-3.999999999999929</v>
+        <v>5.263157894737236</v>
       </c>
       <c r="L265" t="n">
         <v>6.048999999999989</v>
@@ -13794,7 +13816,7 @@
         <v>5.69</v>
       </c>
       <c r="K266" t="n">
-        <v>0</v>
+        <v>-38.46153846153888</v>
       </c>
       <c r="L266" t="n">
         <v>6.05199999999999</v>
@@ -13845,7 +13867,7 @@
         <v>5.71</v>
       </c>
       <c r="K267" t="n">
-        <v>-14.28571428571423</v>
+        <v>-42.85714285714322</v>
       </c>
       <c r="L267" t="n">
         <v>6.044999999999989</v>
@@ -13896,7 +13918,7 @@
         <v>5.71</v>
       </c>
       <c r="K268" t="n">
-        <v>-21.73913043478266</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L268" t="n">
         <v>6.038999999999989</v>
@@ -13947,7 +13969,7 @@
         <v>5.72</v>
       </c>
       <c r="K269" t="n">
-        <v>-19.14893617021286</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L269" t="n">
         <v>6.038999999999989</v>
@@ -13998,7 +14020,7 @@
         <v>5.72</v>
       </c>
       <c r="K270" t="n">
-        <v>-13.63636363636365</v>
+        <v>-25</v>
       </c>
       <c r="L270" t="n">
         <v>6.03799999999999</v>
@@ -14049,7 +14071,7 @@
         <v>5.72</v>
       </c>
       <c r="K271" t="n">
-        <v>-21.95121951219527</v>
+        <v>0</v>
       </c>
       <c r="L271" t="n">
         <v>6.03599999999999</v>
@@ -14100,7 +14122,7 @@
         <v>5.72</v>
       </c>
       <c r="K272" t="n">
-        <v>-20.00000000000018</v>
+        <v>20</v>
       </c>
       <c r="L272" t="n">
         <v>6.035999999999991</v>
@@ -14151,7 +14173,7 @@
         <v>5.73</v>
       </c>
       <c r="K273" t="n">
-        <v>-5.555555555555734</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L273" t="n">
         <v>6.037999999999991</v>
@@ -14202,7 +14224,7 @@
         <v>5.73</v>
       </c>
       <c r="K274" t="n">
-        <v>-15.15151515151522</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>6.03999999999999</v>
@@ -14253,7 +14275,7 @@
         <v>5.75</v>
       </c>
       <c r="K275" t="n">
-        <v>0</v>
+        <v>33.33333333333432</v>
       </c>
       <c r="L275" t="n">
         <v>6.043999999999992</v>
@@ -14304,7 +14326,7 @@
         <v>5.78</v>
       </c>
       <c r="K276" t="n">
-        <v>6.666666666666863</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L276" t="n">
         <v>6.042999999999992</v>
@@ -14355,7 +14377,7 @@
         <v>5.81</v>
       </c>
       <c r="K277" t="n">
-        <v>-11.99999999999983</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L277" t="n">
         <v>6.046999999999992</v>
@@ -14406,7 +14428,7 @@
         <v>5.840000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>-18.51851851851854</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>6.047999999999992</v>
@@ -14457,7 +14479,7 @@
         <v>5.870000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>12.00000000000014</v>
+        <v>20</v>
       </c>
       <c r="L279" t="n">
         <v>6.050999999999993</v>
@@ -14508,7 +14530,7 @@
         <v>5.900000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-3.70370370370363</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>6.050999999999993</v>
@@ -14559,7 +14581,7 @@
         <v>5.930000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>3.448275862069198</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L281" t="n">
         <v>6.053999999999993</v>
@@ -14610,7 +14632,7 @@
         <v>5.960000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L282" t="n">
         <v>6.053999999999993</v>
@@ -14661,7 +14683,7 @@
         <v>5.960000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>3.448275862068881</v>
+        <v>-4.347826086956387</v>
       </c>
       <c r="L283" t="n">
         <v>6.052999999999993</v>
@@ -14712,7 +14734,7 @@
         <v>5.970000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>6.666666666666508</v>
+        <v>-9.090909090909239</v>
       </c>
       <c r="L284" t="n">
         <v>6.052999999999993</v>
@@ -14763,7 +14785,7 @@
         <v>6.000000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>15.15151515151505</v>
+        <v>18.18181818181807</v>
       </c>
       <c r="L285" t="n">
         <v>6.053999999999993</v>
@@ -14814,7 +14836,7 @@
         <v>6.020000000000001</v>
       </c>
       <c r="K286" t="n">
-        <v>15.15151515151505</v>
+        <v>14.28571428571392</v>
       </c>
       <c r="L286" t="n">
         <v>6.059999999999993</v>
@@ -14865,7 +14887,7 @@
         <v>6.020000000000001</v>
       </c>
       <c r="K287" t="n">
-        <v>22.58064516129003</v>
+        <v>33.333333333333</v>
       </c>
       <c r="L287" t="n">
         <v>6.062999999999994</v>
@@ -14916,7 +14938,7 @@
         <v>6.020000000000001</v>
       </c>
       <c r="K288" t="n">
-        <v>22.58064516129003</v>
+        <v>19.99999999999953</v>
       </c>
       <c r="L288" t="n">
         <v>6.068999999999994</v>
@@ -14967,7 +14989,7 @@
         <v>6.040000000000001</v>
       </c>
       <c r="K289" t="n">
-        <v>12.49999999999996</v>
+        <v>28.57142857142867</v>
       </c>
       <c r="L289" t="n">
         <v>6.069999999999994</v>
@@ -15018,7 +15040,7 @@
         <v>6.06</v>
       </c>
       <c r="K290" t="n">
-        <v>17.64705882352926</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L290" t="n">
         <v>6.075999999999994</v>
@@ -15069,7 +15091,7 @@
         <v>6.06</v>
       </c>
       <c r="K291" t="n">
-        <v>17.64705882352926</v>
+        <v>60.00000000000036</v>
       </c>
       <c r="L291" t="n">
         <v>6.078999999999994</v>
@@ -15120,7 +15142,7 @@
         <v>6.090000000000001</v>
       </c>
       <c r="K292" t="n">
-        <v>24.32432432432422</v>
+        <v>69.23076923076965</v>
       </c>
       <c r="L292" t="n">
         <v>6.087999999999995</v>
@@ -15171,7 +15193,7 @@
         <v>6.210000000000001</v>
       </c>
       <c r="K293" t="n">
-        <v>41.66666666666659</v>
+        <v>83.33333333333364</v>
       </c>
       <c r="L293" t="n">
         <v>6.108999999999994</v>
@@ -15222,7 +15244,7 @@
         <v>6.220000000000001</v>
       </c>
       <c r="K294" t="n">
-        <v>38.77551020408163</v>
+        <v>72.72727272727316</v>
       </c>
       <c r="L294" t="n">
         <v>6.127999999999995</v>
@@ -15273,7 +15295,7 @@
         <v>6.220000000000001</v>
       </c>
       <c r="K295" t="n">
-        <v>36.17021276595738</v>
+        <v>70.00000000000053</v>
       </c>
       <c r="L295" t="n">
         <v>6.143999999999994</v>
@@ -15324,7 +15346,7 @@
         <v>6.23</v>
       </c>
       <c r="K296" t="n">
-        <v>42.22222222222229</v>
+        <v>61.90476190476255</v>
       </c>
       <c r="L296" t="n">
         <v>6.156999999999995</v>
@@ -15375,7 +15397,7 @@
         <v>6.24</v>
       </c>
       <c r="K297" t="n">
-        <v>39.53488372093024</v>
+        <v>63.63636363636422</v>
       </c>
       <c r="L297" t="n">
         <v>6.170999999999994</v>
@@ -15426,7 +15448,7 @@
         <v>6.25</v>
       </c>
       <c r="K298" t="n">
-        <v>46.34146341463433</v>
+        <v>71.42857142857191</v>
       </c>
       <c r="L298" t="n">
         <v>6.183999999999994</v>
@@ -15477,7 +15499,7 @@
         <v>6.28</v>
       </c>
       <c r="K299" t="n">
-        <v>31.70731707317077</v>
+        <v>45.45454545454574</v>
       </c>
       <c r="L299" t="n">
         <v>6.195999999999994</v>
@@ -15528,7 +15550,7 @@
         <v>6.300000000000001</v>
       </c>
       <c r="K300" t="n">
-        <v>34.99999999999996</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>6.203999999999993</v>
@@ -15579,7 +15601,7 @@
         <v>6.37</v>
       </c>
       <c r="K301" t="n">
-        <v>9.090909090909127</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L301" t="n">
         <v>6.204999999999993</v>
@@ -15630,7 +15652,7 @@
         <v>6.49</v>
       </c>
       <c r="K302" t="n">
-        <v>35.84905660377376</v>
+        <v>-7.142857142857006</v>
       </c>
       <c r="L302" t="n">
         <v>6.214999999999993</v>
@@ -15681,7 +15703,7 @@
         <v>6.52</v>
       </c>
       <c r="K303" t="n">
-        <v>28.57142857142867</v>
+        <v>-13.33333333333335</v>
       </c>
       <c r="L303" t="n">
         <v>6.209999999999992</v>
@@ -15732,7 +15754,7 @@
         <v>6.550000000000001</v>
       </c>
       <c r="K304" t="n">
-        <v>31.03448275862084</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L304" t="n">
         <v>6.208999999999993</v>
@@ -15783,7 +15805,7 @@
         <v>6.550000000000001</v>
       </c>
       <c r="K305" t="n">
-        <v>27.27272727272739</v>
+        <v>0</v>
       </c>
       <c r="L305" t="n">
         <v>6.207999999999992</v>
@@ -15834,7 +15856,7 @@
         <v>6.550000000000001</v>
       </c>
       <c r="K306" t="n">
-        <v>24.52830188679263</v>
+        <v>-3.22580645161283</v>
       </c>
       <c r="L306" t="n">
         <v>6.207999999999991</v>
@@ -15885,7 +15907,7 @@
         <v>6.59</v>
       </c>
       <c r="K307" t="n">
-        <v>29.82456140350884</v>
+        <v>11.7647058823527</v>
       </c>
       <c r="L307" t="n">
         <v>6.210999999999991</v>
@@ -15936,7 +15958,7 @@
         <v>6.62</v>
       </c>
       <c r="K308" t="n">
-        <v>33.33333333333343</v>
+        <v>29.41176470588226</v>
       </c>
       <c r="L308" t="n">
         <v>6.217999999999991</v>
@@ -15987,7 +16009,7 @@
         <v>6.67</v>
       </c>
       <c r="K309" t="n">
-        <v>42.85714285714285</v>
+        <v>45.94594594594603</v>
       </c>
       <c r="L309" t="n">
         <v>6.23299999999999</v>
@@ -16038,7 +16060,7 @@
         <v>6.7</v>
       </c>
       <c r="K310" t="n">
-        <v>43.75000000000006</v>
+        <v>81.81818181818167</v>
       </c>
       <c r="L310" t="n">
         <v>6.252999999999989</v>
@@ -16089,7 +16111,7 @@
         <v>6.8</v>
       </c>
       <c r="K311" t="n">
-        <v>24.32432432432443</v>
+        <v>16.12903225806448</v>
       </c>
       <c r="L311" t="n">
         <v>6.269999999999989</v>
@@ -16140,7 +16162,7 @@
         <v>6.93</v>
       </c>
       <c r="K312" t="n">
-        <v>33.33333333333341</v>
+        <v>51.21951219512204</v>
       </c>
       <c r="L312" t="n">
         <v>6.287999999999988</v>
@@ -16191,7 +16213,7 @@
         <v>6.94</v>
       </c>
       <c r="K313" t="n">
-        <v>23.28767123287674</v>
+        <v>48.71794871794874</v>
       </c>
       <c r="L313" t="n">
         <v>6.309999999999988</v>
@@ -16242,7 +16264,7 @@
         <v>6.97</v>
       </c>
       <c r="K314" t="n">
-        <v>28.00000000000003</v>
+        <v>52.38095238095244</v>
       </c>
       <c r="L314" t="n">
         <v>6.331999999999988</v>
@@ -16293,7 +16315,7 @@
         <v>7</v>
       </c>
       <c r="K315" t="n">
-        <v>30.76923076923082</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L315" t="n">
         <v>6.356999999999988</v>
@@ -16344,7 +16366,7 @@
         <v>7.039999999999999</v>
       </c>
       <c r="K316" t="n">
-        <v>35.80246913580243</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L316" t="n">
         <v>6.385999999999987</v>
@@ -16395,7 +16417,7 @@
         <v>7.1</v>
       </c>
       <c r="K317" t="n">
-        <v>39.53488372093024</v>
+        <v>58.33333333333344</v>
       </c>
       <c r="L317" t="n">
         <v>6.416999999999987</v>
@@ -16446,7 +16468,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="K318" t="n">
-        <v>47.36842105263154</v>
+        <v>62.26415094339631</v>
       </c>
       <c r="L318" t="n">
         <v>6.454999999999989</v>
@@ -16497,7 +16519,7 @@
         <v>7.289999999999999</v>
       </c>
       <c r="K319" t="n">
-        <v>56.43564356435644</v>
+        <v>66.1016949152543</v>
       </c>
       <c r="L319" t="n">
         <v>6.496999999999988</v>
@@ -16548,7 +16570,7 @@
         <v>7.399999999999999</v>
       </c>
       <c r="K320" t="n">
-        <v>43.63636363636376</v>
+        <v>63.33333333333344</v>
       </c>
       <c r="L320" t="n">
         <v>6.524999999999989</v>
@@ -16599,7 +16621,7 @@
         <v>7.429999999999999</v>
       </c>
       <c r="K321" t="n">
-        <v>49.05660377358492</v>
+        <v>44.00000000000003</v>
       </c>
       <c r="L321" t="n">
         <v>6.559999999999988</v>
@@ -16650,7 +16672,7 @@
         <v>7.449999999999999</v>
       </c>
       <c r="K322" t="n">
-        <v>43.75000000000004</v>
+        <v>45.09803921568638</v>
       </c>
       <c r="L322" t="n">
         <v>6.583999999999989</v>
@@ -16701,7 +16723,7 @@
         <v>7.479999999999999</v>
       </c>
       <c r="K323" t="n">
-        <v>50.00000000000004</v>
+        <v>45.09803921568628</v>
       </c>
       <c r="L323" t="n">
         <v>6.60999999999999</v>
@@ -16752,7 +16774,7 @@
         <v>7.579999999999998</v>
       </c>
       <c r="K324" t="n">
-        <v>33.98058252427189</v>
+        <v>17.24137931034482</v>
       </c>
       <c r="L324" t="n">
         <v>6.622999999999989</v>
@@ -16803,7 +16825,7 @@
         <v>7.679999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>39.82300884955755</v>
+        <v>25.00000000000007</v>
       </c>
       <c r="L325" t="n">
         <v>6.642999999999988</v>
@@ -16854,7 +16876,7 @@
         <v>7.839999999999998</v>
       </c>
       <c r="K326" t="n">
-        <v>22.48062015503874</v>
+        <v>-8.108108108108192</v>
       </c>
       <c r="L326" t="n">
         <v>6.642999999999988</v>
@@ -16905,7 +16927,7 @@
         <v>7.909999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>24.24242424242429</v>
+        <v>-12.67605633802817</v>
       </c>
       <c r="L327" t="n">
         <v>6.643999999999989</v>
@@ -16956,7 +16978,7 @@
         <v>7.909999999999998</v>
       </c>
       <c r="K328" t="n">
-        <v>22.48062015503879</v>
+        <v>-29.03225806451612</v>
       </c>
       <c r="L328" t="n">
         <v>6.634999999999988</v>
@@ -17007,7 +17029,7 @@
         <v>7.919999999999998</v>
       </c>
       <c r="K329" t="n">
-        <v>18.40000000000006</v>
+        <v>-15.38461538461541</v>
       </c>
       <c r="L329" t="n">
         <v>6.615999999999988</v>
@@ -17058,7 +17080,7 @@
         <v>7.919999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>16.39344262295086</v>
+        <v>-10.20408163265304</v>
       </c>
       <c r="L330" t="n">
         <v>6.607999999999988</v>
@@ -17109,7 +17131,7 @@
         <v>7.939999999999999</v>
       </c>
       <c r="K331" t="n">
-        <v>24.5614035087719</v>
+        <v>-18.36734693877569</v>
       </c>
       <c r="L331" t="n">
         <v>6.600999999999989</v>
@@ -17160,7 +17182,7 @@
         <v>8.049999999999997</v>
       </c>
       <c r="K332" t="n">
-        <v>3.571428571428583</v>
+        <v>-40.35087719298248</v>
       </c>
       <c r="L332" t="n">
         <v>6.580999999999989</v>
@@ -17211,7 +17233,7 @@
         <v>8.149999999999997</v>
       </c>
       <c r="K333" t="n">
-        <v>10.74380165289258</v>
+        <v>-5.263157894736899</v>
       </c>
       <c r="L333" t="n">
         <v>6.567999999999989</v>
@@ -17262,7 +17284,7 @@
         <v>8.189999999999998</v>
       </c>
       <c r="K334" t="n">
-        <v>4.918032786885222</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L334" t="n">
         <v>6.56099999999999</v>
@@ -17313,7 +17335,7 @@
         <v>8.239999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>6.451612903225749</v>
+        <v>10</v>
       </c>
       <c r="L335" t="n">
         <v>6.54899999999999</v>
@@ -17364,7 +17386,7 @@
         <v>8.27</v>
       </c>
       <c r="K336" t="n">
-        <v>5.691056910569127</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>6.55599999999999</v>
@@ -17415,7 +17437,7 @@
         <v>8.279999999999999</v>
       </c>
       <c r="K337" t="n">
-        <v>1.694915254237252</v>
+        <v>2.702702702702638</v>
       </c>
       <c r="L337" t="n">
         <v>6.55699999999999</v>
@@ -17466,7 +17488,7 @@
         <v>8.299999999999999</v>
       </c>
       <c r="K338" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L338" t="n">
         <v>6.555999999999989</v>
@@ -17517,7 +17539,7 @@
         <v>8.32</v>
       </c>
       <c r="K339" t="n">
-        <v>-20.38834951456308</v>
+        <v>-5.000000000000089</v>
       </c>
       <c r="L339" t="n">
         <v>6.55399999999999</v>
@@ -17568,7 +17590,7 @@
         <v>8.32</v>
       </c>
       <c r="K340" t="n">
-        <v>-10.86956521739134</v>
+        <v>0</v>
       </c>
       <c r="L340" t="n">
         <v>6.55199999999999</v>
@@ -17619,7 +17641,7 @@
         <v>8.35</v>
       </c>
       <c r="K341" t="n">
-        <v>-10.86956521739125</v>
+        <v>26.66666666666647</v>
       </c>
       <c r="L341" t="n">
         <v>6.54899999999999</v>
@@ -17670,7 +17692,7 @@
         <v>8.399999999999999</v>
       </c>
       <c r="K342" t="n">
-        <v>-17.89473684210527</v>
+        <v>-27.99999999999956</v>
       </c>
       <c r="L342" t="n">
         <v>6.55199999999999</v>
@@ -17721,7 +17743,7 @@
         <v>8.419999999999998</v>
       </c>
       <c r="K343" t="n">
-        <v>-19.14893617021275</v>
+        <v>-4.347826086956421</v>
       </c>
       <c r="L343" t="n">
         <v>6.54699999999999</v>
@@ -17772,7 +17794,7 @@
         <v>8.419999999999998</v>
       </c>
       <c r="K344" t="n">
-        <v>-9.523809523809534</v>
+        <v>-33.33333333333317</v>
       </c>
       <c r="L344" t="n">
         <v>6.54599999999999</v>
@@ -17823,7 +17845,7 @@
         <v>8.499999999999998</v>
       </c>
       <c r="K345" t="n">
-        <v>-31.70731707317069</v>
+        <v>-73.91304347826127</v>
       </c>
       <c r="L345" t="n">
         <v>6.531999999999989</v>
@@ -17874,7 +17896,7 @@
         <v>8.569999999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>-4.1095890410958</v>
+        <v>-37.93103448275853</v>
       </c>
       <c r="L346" t="n">
         <v>6.521999999999989</v>
@@ -17925,7 +17947,7 @@
         <v>8.569999999999999</v>
       </c>
       <c r="K347" t="n">
-        <v>-15.15151515151509</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L347" t="n">
         <v>6.510999999999989</v>
@@ -17976,7 +17998,7 @@
         <v>8.629999999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>-22.22222222222222</v>
+        <v>-41.93548387096789</v>
       </c>
       <c r="L348" t="n">
         <v>6.495999999999988</v>
@@ -18027,7 +18049,7 @@
         <v>8.629999999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>-21.12676056338031</v>
+        <v>-41.93548387096789</v>
       </c>
       <c r="L349" t="n">
         <v>6.482999999999987</v>
@@ -18078,7 +18100,7 @@
         <v>8.629999999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>-21.12676056338031</v>
+        <v>-35.71428571428599</v>
       </c>
       <c r="L350" t="n">
         <v>6.469999999999987</v>
@@ -18129,7 +18151,7 @@
         <v>8.739999999999998</v>
       </c>
       <c r="K351" t="n">
-        <v>-29.99999999999992</v>
+        <v>-47.05882352941182</v>
       </c>
       <c r="L351" t="n">
         <v>6.448999999999987</v>
@@ -18180,7 +18202,7 @@
         <v>8.819999999999999</v>
       </c>
       <c r="K352" t="n">
-        <v>-6.49350649350646</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L352" t="n">
         <v>6.440999999999987</v>
@@ -18231,7 +18253,7 @@
         <v>8.829999999999998</v>
       </c>
       <c r="K353" t="n">
-        <v>-20.58823529411756</v>
+        <v>-21.95121951219508</v>
       </c>
       <c r="L353" t="n">
         <v>6.431999999999986</v>
@@ -18282,7 +18304,7 @@
         <v>8.849999999999998</v>
       </c>
       <c r="K354" t="n">
-        <v>-12.12121212121213</v>
+        <v>2.857142857142799</v>
       </c>
       <c r="L354" t="n">
         <v>6.424999999999986</v>
@@ -18333,7 +18355,7 @@
         <v>8.899999999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>-12.12121212121199</v>
+        <v>-3.030303030302965</v>
       </c>
       <c r="L355" t="n">
         <v>6.430999999999986</v>
@@ -18384,7 +18406,7 @@
         <v>8.919999999999998</v>
       </c>
       <c r="K356" t="n">
-        <v>-20.00000000000002</v>
+        <v>-8.571428571428651</v>
       </c>
       <c r="L356" t="n">
         <v>6.427999999999986</v>
@@ -18435,7 +18457,7 @@
         <v>9.059999999999999</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>39.53488372093024</v>
       </c>
       <c r="L357" t="n">
         <v>6.438999999999986</v>
@@ -18486,7 +18508,7 @@
         <v>9.139999999999999</v>
       </c>
       <c r="K358" t="n">
-        <v>11.90476190476186</v>
+        <v>49.01960784313727</v>
       </c>
       <c r="L358" t="n">
         <v>6.463999999999984</v>
@@ -18537,7 +18559,7 @@
         <v>9.139999999999999</v>
       </c>
       <c r="K359" t="n">
-        <v>14.63414634146346</v>
+        <v>49.01960784313727</v>
       </c>
       <c r="L359" t="n">
         <v>6.488999999999985</v>
@@ -18588,7 +18610,7 @@
         <v>9.149999999999999</v>
       </c>
       <c r="K360" t="n">
-        <v>15.66265060240976</v>
+        <v>90.24390243902438</v>
       </c>
       <c r="L360" t="n">
         <v>6.514999999999984</v>
@@ -18639,7 +18661,7 @@
         <v>9.18</v>
       </c>
       <c r="K361" t="n">
-        <v>15.66265060240963</v>
+        <v>72.22222222222192</v>
       </c>
       <c r="L361" t="n">
         <v>6.548999999999984</v>
@@ -18690,7 +18712,7 @@
         <v>9.19</v>
       </c>
       <c r="K362" t="n">
-        <v>21.51898734177212</v>
+        <v>66.6666666666665</v>
       </c>
       <c r="L362" t="n">
         <v>6.573999999999984</v>
@@ -18741,7 +18763,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="K363" t="n">
-        <v>16.45569620253157</v>
+        <v>55.55555555555515</v>
       </c>
       <c r="L363" t="n">
         <v>6.595999999999984</v>
@@ -18792,7 +18814,7 @@
         <v>9.240000000000002</v>
       </c>
       <c r="K364" t="n">
-        <v>12.19512195121941</v>
+        <v>35.29411764705824</v>
       </c>
       <c r="L364" t="n">
         <v>6.612999999999983</v>
@@ -18843,7 +18865,7 @@
         <v>9.250000000000002</v>
       </c>
       <c r="K365" t="n">
-        <v>22.66666666666655</v>
+        <v>39.39393939393893</v>
       </c>
       <c r="L365" t="n">
         <v>6.623999999999983</v>
@@ -18894,7 +18916,7 @@
         <v>9.260000000000002</v>
       </c>
       <c r="K366" t="n">
-        <v>13.04347826086949</v>
+        <v>-9.999999999999645</v>
       </c>
       <c r="L366" t="n">
         <v>6.635999999999983</v>
@@ -18945,7 +18967,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="K367" t="n">
-        <v>6.849315068493106</v>
+        <v>-87.49999999999875</v>
       </c>
       <c r="L367" t="n">
         <v>6.629999999999984</v>
@@ -18996,7 +19018,7 @@
         <v>9.32</v>
       </c>
       <c r="K368" t="n">
-        <v>13.04347826086952</v>
+        <v>-88.88888888888823</v>
       </c>
       <c r="L368" t="n">
         <v>6.613999999999985</v>
@@ -19047,7 +19069,7 @@
         <v>9.32</v>
       </c>
       <c r="K369" t="n">
-        <v>13.04347826086952</v>
+        <v>-99.99999999999947</v>
       </c>
       <c r="L369" t="n">
         <v>6.597999999999985</v>
@@ -19098,7 +19120,7 @@
         <v>9.330000000000002</v>
       </c>
       <c r="K370" t="n">
-        <v>14.2857142857143</v>
+        <v>-86.66666666666536</v>
       </c>
       <c r="L370" t="n">
         <v>6.581999999999985</v>
@@ -19149,7 +19171,7 @@
         <v>9.400000000000002</v>
       </c>
       <c r="K371" t="n">
-        <v>21.21212121212105</v>
+        <v>-90.47619047618953</v>
       </c>
       <c r="L371" t="n">
         <v>6.561999999999985</v>
@@ -19200,7 +19222,7 @@
         <v>9.430000000000003</v>
       </c>
       <c r="K372" t="n">
-        <v>4.918032786885103</v>
+        <v>-90.90909090909</v>
       </c>
       <c r="L372" t="n">
         <v>6.539999999999983</v>
@@ -19251,7 +19273,7 @@
         <v>9.510000000000003</v>
       </c>
       <c r="K373" t="n">
-        <v>-8.823529411764714</v>
+        <v>-92.59259259259213</v>
       </c>
       <c r="L373" t="n">
         <v>6.511999999999984</v>
@@ -19302,7 +19324,7 @@
         <v>9.530000000000005</v>
       </c>
       <c r="K374" t="n">
-        <v>-8.823529411764559</v>
+        <v>-78.57142857142767</v>
       </c>
       <c r="L374" t="n">
         <v>6.488999999999985</v>
@@ -19353,7 +19375,7 @@
         <v>9.590000000000003</v>
       </c>
       <c r="K375" t="n">
-        <v>-7.246376811594255</v>
+        <v>-45.45454545454531</v>
       </c>
       <c r="L375" t="n">
         <v>6.472999999999985</v>
@@ -19404,7 +19426,7 @@
         <v>9.590000000000003</v>
       </c>
       <c r="K376" t="n">
-        <v>-4.477611940298509</v>
+        <v>-37.93103448275838</v>
       </c>
       <c r="L376" t="n">
         <v>6.457999999999986</v>
@@ -19455,7 +19477,7 @@
         <v>9.630000000000003</v>
       </c>
       <c r="K377" t="n">
-        <v>-36.84210526315764</v>
+        <v>-41.9354838709674</v>
       </c>
       <c r="L377" t="n">
         <v>6.442999999999985</v>
@@ -19506,7 +19528,7 @@
         <v>9.650000000000002</v>
       </c>
       <c r="K378" t="n">
-        <v>-52.94117647058781</v>
+        <v>-33.33333333333297</v>
       </c>
       <c r="L378" t="n">
         <v>6.431999999999985</v>
@@ -19557,7 +19579,7 @@
         <v>9.680000000000003</v>
       </c>
       <c r="K379" t="n">
-        <v>-44.44444444444395</v>
+        <v>-25.71428571428557</v>
       </c>
       <c r="L379" t="n">
         <v>6.423999999999985</v>
@@ -19608,7 +19630,7 @@
         <v>9.740000000000004</v>
       </c>
       <c r="K380" t="n">
-        <v>-52.54237288135556</v>
+        <v>-23.52941176470579</v>
       </c>
       <c r="L380" t="n">
         <v>6.408999999999985</v>
@@ -19659,7 +19681,7 @@
         <v>9.760000000000005</v>
       </c>
       <c r="K381" t="n">
-        <v>-44.8275862068961</v>
+        <v>-9.090909090908847</v>
       </c>
       <c r="L381" t="n">
         <v>6.402999999999986</v>
@@ -19710,7 +19732,7 @@
         <v>9.760000000000005</v>
       </c>
       <c r="K382" t="n">
-        <v>-43.85964912280659</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L382" t="n">
         <v>6.399999999999986</v>
@@ -19761,7 +19783,7 @@
         <v>9.770000000000007</v>
       </c>
       <c r="K383" t="n">
-        <v>-42.85714285714245</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L383" t="n">
         <v>6.403999999999987</v>
@@ -19812,7 +19834,7 @@
         <v>9.800000000000008</v>
       </c>
       <c r="K384" t="n">
-        <v>-32.14285714285676</v>
+        <v>-4.76190476190456</v>
       </c>
       <c r="L384" t="n">
         <v>6.408999999999986</v>
@@ -19863,7 +19885,7 @@
         <v>9.830000000000009</v>
       </c>
       <c r="K385" t="n">
-        <v>-24.1379310344824</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="L385" t="n">
         <v>6.410999999999987</v>
@@ -19914,7 +19936,7 @@
         <v>9.88000000000001</v>
       </c>
       <c r="K386" t="n">
-        <v>-29.0322580645157</v>
+        <v>4.000000000000156</v>
       </c>
       <c r="L386" t="n">
         <v>6.407999999999987</v>
@@ -19965,7 +19987,7 @@
         <v>9.93000000000001</v>
       </c>
       <c r="K387" t="n">
-        <v>-14.28571428571404</v>
+        <v>14.28571428571388</v>
       </c>
       <c r="L387" t="n">
         <v>6.413999999999987</v>
@@ -20016,7 +20038,7 @@
         <v>9.980000000000011</v>
       </c>
       <c r="K388" t="n">
-        <v>-18.18181818181777</v>
+        <v>-13.333333333333</v>
       </c>
       <c r="L388" t="n">
         <v>6.412999999999988</v>
@@ -20067,7 +20089,7 @@
         <v>9.980000000000011</v>
       </c>
       <c r="K389" t="n">
-        <v>-18.18181818181777</v>
+        <v>8.333333333333272</v>
       </c>
       <c r="L389" t="n">
         <v>6.408999999999989</v>
@@ -20118,7 +20140,7 @@
         <v>9.980000000000011</v>
       </c>
       <c r="K390" t="n">
-        <v>-19.9999999999997</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>6.41099999999999</v>
@@ -20169,7 +20191,7 @@
         <v>9.990000000000013</v>
       </c>
       <c r="K391" t="n">
-        <v>-11.86440677966085</v>
+        <v>-4.347826086956672</v>
       </c>
       <c r="L391" t="n">
         <v>6.409999999999989</v>
@@ -20220,7 +20242,7 @@
         <v>10.07000000000001</v>
       </c>
       <c r="K392" t="n">
-        <v>-18.74999999999974</v>
+        <v>-26.66666666666616</v>
       </c>
       <c r="L392" t="n">
         <v>6.400999999999989</v>
@@ -20271,7 +20293,7 @@
         <v>10.12000000000001</v>
       </c>
       <c r="K393" t="n">
-        <v>-14.75409836065551</v>
+        <v>-49.99999999999945</v>
       </c>
       <c r="L393" t="n">
         <v>6.387999999999989</v>
@@ -20322,7 +20344,7 @@
         <v>10.17000000000001</v>
       </c>
       <c r="K394" t="n">
-        <v>-9.374999999999964</v>
+        <v>-41.17647058823505</v>
       </c>
       <c r="L394" t="n">
         <v>6.37699999999999</v>
@@ -20373,7 +20395,7 @@
         <v>10.19000000000001</v>
       </c>
       <c r="K395" t="n">
-        <v>-23.33333333333295</v>
+        <v>-35.48387096774178</v>
       </c>
       <c r="L395" t="n">
         <v>6.36099999999999</v>
@@ -20424,7 +20446,7 @@
         <v>10.20000000000001</v>
       </c>
       <c r="K396" t="n">
-        <v>-21.31147540983576</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L396" t="n">
         <v>6.35099999999999</v>
@@ -20475,7 +20497,7 @@
         <v>10.23000000000001</v>
       </c>
       <c r="K397" t="n">
-        <v>-9.999999999999792</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L397" t="n">
         <v>6.33899999999999</v>
@@ -20526,7 +20548,7 @@
         <v>10.25000000000001</v>
       </c>
       <c r="K398" t="n">
-        <v>-16.66666666666652</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L398" t="n">
         <v>6.32999999999999</v>
@@ -20577,7 +20599,7 @@
         <v>10.25000000000001</v>
       </c>
       <c r="K399" t="n">
-        <v>-22.80701754385949</v>
+        <v>-33.33333333333366</v>
       </c>
       <c r="L399" t="n">
         <v>6.32099999999999</v>
@@ -20628,7 +20650,7 @@
         <v>10.32000000000001</v>
       </c>
       <c r="K400" t="n">
-        <v>-24.1379310344824</v>
+        <v>-45.45454545454552</v>
       </c>
       <c r="L400" t="n">
         <v>6.304999999999991</v>
@@ -20679,7 +20701,7 @@
         <v>10.37000000000001</v>
       </c>
       <c r="K401" t="n">
-        <v>-18.03278688524576</v>
+        <v>-6.666666666666549</v>
       </c>
       <c r="L401" t="n">
         <v>6.29499999999999</v>
@@ -20730,7 +20752,7 @@
         <v>10.37000000000001</v>
       </c>
       <c r="K402" t="n">
-        <v>-18.03278688524576</v>
+        <v>12.0000000000001</v>
       </c>
       <c r="L402" t="n">
         <v>6.29299999999999</v>
@@ -20781,7 +20803,7 @@
         <v>10.39000000000001</v>
       </c>
       <c r="K403" t="n">
-        <v>-19.3548387096773</v>
+        <v>-18.18181818181829</v>
       </c>
       <c r="L403" t="n">
         <v>6.293999999999991</v>
@@ -20832,7 +20854,7 @@
         <v>10.42000000000001</v>
       </c>
       <c r="K404" t="n">
-        <v>-29.03225806451595</v>
+        <v>-21.73913043478266</v>
       </c>
       <c r="L404" t="n">
         <v>6.28699999999999</v>
@@ -20883,7 +20905,7 @@
         <v>10.43000000000001</v>
       </c>
       <c r="K405" t="n">
-        <v>-36.66666666666654</v>
+        <v>-30.43478260869557</v>
       </c>
       <c r="L405" t="n">
         <v>6.280999999999991</v>
@@ -20934,7 +20956,7 @@
         <v>10.45000000000001</v>
       </c>
       <c r="K406" t="n">
-        <v>-26.31578947368426</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L406" t="n">
         <v>6.275999999999992</v>
@@ -20985,7 +21007,7 @@
         <v>10.46000000000001</v>
       </c>
       <c r="K407" t="n">
-        <v>-35.8490566037737</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L407" t="n">
         <v>6.268999999999993</v>
@@ -21036,7 +21058,7 @@
         <v>10.46000000000001</v>
       </c>
       <c r="K408" t="n">
-        <v>-29.16666666666687</v>
+        <v>-23.80952380952383</v>
       </c>
       <c r="L408" t="n">
         <v>6.263999999999993</v>
@@ -21087,7 +21109,7 @@
         <v>10.50000000000001</v>
       </c>
       <c r="K409" t="n">
-        <v>-19.23076923076935</v>
+        <v>33.33333333333317</v>
       </c>
       <c r="L409" t="n">
         <v>6.262999999999993</v>
@@ -21138,7 +21160,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K410" t="n">
-        <v>-16.98113207547186</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L410" t="n">
         <v>6.269999999999992</v>
@@ -21189,7 +21211,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K411" t="n">
-        <v>-15.38461538461546</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L411" t="n">
         <v>6.271999999999992</v>
@@ -21240,7 +21262,7 @@
         <v>10.51000000000001</v>
       </c>
       <c r="K412" t="n">
-        <v>0</v>
+        <v>33.33333333333358</v>
       </c>
       <c r="L412" t="n">
         <v>6.273999999999992</v>
@@ -21291,7 +21313,7 @@
         <v>10.56000000000001</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>14.28571428571411</v>
       </c>
       <c r="L413" t="n">
         <v>6.272999999999992</v>
@@ -21342,7 +21364,7 @@
         <v>10.56000000000001</v>
       </c>
       <c r="K414" t="n">
-        <v>-12.82051282051287</v>
+        <v>23.07692307692276</v>
       </c>
       <c r="L414" t="n">
         <v>6.274999999999992</v>
@@ -21393,7 +21415,7 @@
         <v>10.63000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>9.090909090909145</v>
+        <v>44.44444444444456</v>
       </c>
       <c r="L415" t="n">
         <v>6.284999999999992</v>
@@ -21444,7 +21466,7 @@
         <v>10.63000000000001</v>
       </c>
       <c r="K416" t="n">
-        <v>6.976744186046603</v>
+        <v>41.17647058823548</v>
       </c>
       <c r="L416" t="n">
         <v>6.292999999999992</v>
@@ -21495,7 +21517,7 @@
         <v>10.70000000000001</v>
       </c>
       <c r="K417" t="n">
-        <v>14.89361702127669</v>
+        <v>58.33333333333351</v>
       </c>
       <c r="L417" t="n">
         <v>6.306999999999993</v>
@@ -21546,7 +21568,7 @@
         <v>10.75000000000001</v>
       </c>
       <c r="K418" t="n">
-        <v>28.00000000000011</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L418" t="n">
         <v>6.325999999999993</v>
@@ -21597,7 +21619,7 @@
         <v>10.76000000000001</v>
       </c>
       <c r="K419" t="n">
-        <v>25.49019607843154</v>
+        <v>52.00000000000031</v>
       </c>
       <c r="L419" t="n">
         <v>6.339999999999994</v>
@@ -21648,7 +21670,7 @@
         <v>10.76000000000001</v>
       </c>
       <c r="K420" t="n">
-        <v>45.45454545454555</v>
+        <v>52.00000000000031</v>
       </c>
       <c r="L420" t="n">
         <v>6.352999999999993</v>
@@ -21699,7 +21721,7 @@
         <v>10.85000000000001</v>
       </c>
       <c r="K421" t="n">
-        <v>12.49999999999991</v>
+        <v>11.7647058823529</v>
       </c>
       <c r="L421" t="n">
         <v>6.356999999999992</v>
@@ -21750,7 +21772,7 @@
         <v>10.94000000000001</v>
       </c>
       <c r="K422" t="n">
-        <v>26.31578947368426</v>
+        <v>47.36842105263142</v>
       </c>
       <c r="L422" t="n">
         <v>6.369999999999992</v>
@@ -21801,7 +21823,7 @@
         <v>10.94000000000001</v>
       </c>
       <c r="K423" t="n">
-        <v>30.90909090909102</v>
+        <v>47.36842105263142</v>
       </c>
       <c r="L423" t="n">
         <v>6.387999999999992</v>
@@ -21852,7 +21874,7 @@
         <v>10.98000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L424" t="n">
         <v>6.401999999999991</v>
@@ -21903,7 +21925,7 @@
         <v>11.01000000000001</v>
       </c>
       <c r="K425" t="n">
-        <v>24.13793103448263</v>
+        <v>10.52631578947362</v>
       </c>
       <c r="L425" t="n">
         <v>6.405999999999992</v>
@@ -21954,7 +21976,7 @@
         <v>11.01000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>21.42857142857136</v>
+        <v>-9.677419354838719</v>
       </c>
       <c r="L426" t="n">
         <v>6.409999999999992</v>
@@ -22005,7 +22027,7 @@
         <v>11.03000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>22.80701754385955</v>
+        <v>-21.42857142857152</v>
       </c>
       <c r="L427" t="n">
         <v>6.408999999999992</v>
@@ -22056,7 +22078,7 @@
         <v>11.03000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>22.80701754385955</v>
+        <v>-18.51851851851869</v>
       </c>
       <c r="L428" t="n">
         <v>6.402999999999992</v>
@@ -22107,7 +22129,7 @@
         <v>11.03000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>16.98113207547163</v>
+        <v>-18.51851851851869</v>
       </c>
       <c r="L429" t="n">
         <v>6.397999999999992</v>
@@ -22158,7 +22180,7 @@
         <v>11.03000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>15.38461538461536</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L430" t="n">
         <v>6.392999999999992</v>
@@ -22209,7 +22231,7 @@
         <v>11.03000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>15.38461538461536</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L431" t="n">
         <v>6.396999999999992</v>
@@ -22260,7 +22282,7 @@
         <v>11.03000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>15.38461538461536</v>
+        <v>-55.55555555555644</v>
       </c>
       <c r="L432" t="n">
         <v>6.391999999999991</v>
@@ -22311,7 +22333,7 @@
         <v>11.04000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>29.16666666666654</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>6.387999999999993</v>
@@ -22362,7 +22384,7 @@
         <v>11.04000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>29.16666666666654</v>
+        <v>99.99999999999703</v>
       </c>
       <c r="L434" t="n">
         <v>6.387999999999993</v>
@@ -22413,7 +22435,7 @@
         <v>11.05000000000001</v>
       </c>
       <c r="K435" t="n">
-        <v>14.28571428571401</v>
+        <v>49.99999999999556</v>
       </c>
       <c r="L435" t="n">
         <v>6.389999999999993</v>
@@ -22464,7 +22486,7 @@
         <v>11.09000000000001</v>
       </c>
       <c r="K436" t="n">
-        <v>21.73913043478232</v>
+        <v>66.6666666666642</v>
       </c>
       <c r="L436" t="n">
         <v>6.395999999999993</v>
@@ -22515,7 +22537,7 @@
         <v>11.09000000000001</v>
       </c>
       <c r="K437" t="n">
-        <v>7.692307692307447</v>
+        <v>66.6666666666642</v>
       </c>
       <c r="L437" t="n">
         <v>6.399999999999993</v>
@@ -22566,7 +22588,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K438" t="n">
-        <v>-2.857142857142756</v>
+        <v>71.42857142856853</v>
       </c>
       <c r="L438" t="n">
         <v>6.404999999999992</v>
@@ -22617,7 +22639,7 @@
         <v>11.13000000000001</v>
       </c>
       <c r="K439" t="n">
-        <v>8.108108108107835</v>
+        <v>79.99999999999751</v>
       </c>
       <c r="L439" t="n">
         <v>6.412999999999992</v>
@@ -22668,7 +22690,7 @@
         <v>11.16000000000001</v>
       </c>
       <c r="K440" t="n">
-        <v>14.99999999999975</v>
+        <v>84.61538461538319</v>
       </c>
       <c r="L440" t="n">
         <v>6.423999999999992</v>
@@ -22719,7 +22741,7 @@
         <v>11.16000000000001</v>
       </c>
       <c r="K441" t="n">
-        <v>48.3870967741933</v>
+        <v>84.61538461538319</v>
       </c>
       <c r="L441" t="n">
         <v>6.434999999999993</v>
@@ -22770,7 +22792,7 @@
         <v>11.16000000000001</v>
       </c>
       <c r="K442" t="n">
-        <v>27.27272727272679</v>
+        <v>83.33333333333235</v>
       </c>
       <c r="L442" t="n">
         <v>6.445999999999993</v>
@@ -22821,7 +22843,7 @@
         <v>11.16000000000001</v>
       </c>
       <c r="K443" t="n">
-        <v>27.27272727272679</v>
+        <v>83.33333333333235</v>
       </c>
       <c r="L443" t="n">
         <v>6.455999999999992</v>
@@ -22872,7 +22894,7 @@
         <v>11.16000000000001</v>
       </c>
       <c r="K444" t="n">
-        <v>55.55555555555435</v>
+        <v>100.0000000000008</v>
       </c>
       <c r="L444" t="n">
         <v>6.465999999999991</v>
@@ -22923,7 +22945,7 @@
         <v>11.23000000000001</v>
       </c>
       <c r="K445" t="n">
-        <v>27.27272727272679</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>6.469999999999992</v>
@@ -22974,7 +22996,7 @@
         <v>11.34000000000001</v>
       </c>
       <c r="K446" t="n">
-        <v>51.5151515151512</v>
+        <v>44.00000000000013</v>
       </c>
       <c r="L446" t="n">
         <v>6.480999999999992</v>
@@ -23025,7 +23047,7 @@
         <v>11.36000000000001</v>
       </c>
       <c r="K447" t="n">
-        <v>39.39393939393914</v>
+        <v>30.76923076923069</v>
       </c>
       <c r="L447" t="n">
         <v>6.489999999999992</v>
@@ -23076,7 +23098,7 @@
         <v>11.37000000000001</v>
       </c>
       <c r="K448" t="n">
-        <v>35.29411764705868</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L448" t="n">
         <v>6.496999999999993</v>
@@ -23127,7 +23149,7 @@
         <v>11.39000000000001</v>
       </c>
       <c r="K449" t="n">
-        <v>38.88888888888872</v>
+        <v>13.04347826086965</v>
       </c>
       <c r="L449" t="n">
         <v>6.502999999999993</v>
@@ -23178,7 +23200,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K450" t="n">
-        <v>35.13513513513468</v>
+        <v>8.333333333333087</v>
       </c>
       <c r="L450" t="n">
         <v>6.504999999999993</v>
@@ -23229,7 +23251,7 @@
         <v>11.42000000000002</v>
       </c>
       <c r="K451" t="n">
-        <v>28.20512820512799</v>
+        <v>0</v>
       </c>
       <c r="L451" t="n">
         <v>6.504999999999993</v>
@@ -23280,7 +23302,7 @@
         <v>11.44000000000002</v>
       </c>
       <c r="K452" t="n">
-        <v>31.70731707317042</v>
+        <v>7.142857142856962</v>
       </c>
       <c r="L452" t="n">
         <v>6.506999999999993</v>
@@ -23331,7 +23353,7 @@
         <v>11.49000000000002</v>
       </c>
       <c r="K453" t="n">
-        <v>37.77777777777752</v>
+        <v>21.21212121212118</v>
       </c>
       <c r="L453" t="n">
         <v>6.513999999999993</v>
@@ -23382,7 +23404,7 @@
         <v>11.56000000000002</v>
       </c>
       <c r="K454" t="n">
-        <v>46.15384615384575</v>
+        <v>63.63636363636327</v>
       </c>
       <c r="L454" t="n">
         <v>6.527999999999993</v>
@@ -23433,7 +23455,7 @@
         <v>11.62000000000002</v>
       </c>
       <c r="K455" t="n">
-        <v>54.38596491228059</v>
+        <v>57.1428571428566</v>
       </c>
       <c r="L455" t="n">
         <v>6.554999999999993</v>
@@ -23484,7 +23506,7 @@
         <v>11.67000000000002</v>
       </c>
       <c r="K456" t="n">
-        <v>37.93103448275861</v>
+        <v>41.93548387096769</v>
       </c>
       <c r="L456" t="n">
         <v>6.565999999999993</v>
@@ -23535,7 +23557,7 @@
         <v>11.72000000000002</v>
       </c>
       <c r="K457" t="n">
-        <v>42.85714285714275</v>
+        <v>54.2857142857139</v>
       </c>
       <c r="L457" t="n">
         <v>6.583999999999993</v>
@@ -23586,7 +23608,7 @@
         <v>11.72000000000002</v>
       </c>
       <c r="K458" t="n">
-        <v>41.93548387096764</v>
+        <v>51.5151515151512</v>
       </c>
       <c r="L458" t="n">
         <v>6.602999999999993</v>
@@ -23637,7 +23659,7 @@
         <v>11.72000000000002</v>
       </c>
       <c r="K459" t="n">
-        <v>38.98305084745759</v>
+        <v>56.25000000000014</v>
       </c>
       <c r="L459" t="n">
         <v>6.619999999999993</v>
@@ -23688,7 +23710,7 @@
         <v>11.72000000000002</v>
       </c>
       <c r="K460" t="n">
-        <v>35.7142857142856</v>
+        <v>66.66666666666656</v>
       </c>
       <c r="L460" t="n">
         <v>6.637999999999994</v>
@@ -23739,7 +23761,7 @@
         <v>11.82000000000002</v>
       </c>
       <c r="K461" t="n">
-        <v>15.15151515151501</v>
+        <v>21.05263157894725</v>
       </c>
       <c r="L461" t="n">
         <v>6.647999999999993</v>
@@ -23790,7 +23812,7 @@
         <v>11.91000000000002</v>
       </c>
       <c r="K462" t="n">
-        <v>25.33333333333326</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="L462" t="n">
         <v>6.664999999999994</v>
@@ -23841,7 +23863,7 @@
         <v>11.91000000000002</v>
       </c>
       <c r="K463" t="n">
-        <v>25.33333333333326</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L463" t="n">
         <v>6.676999999999992</v>
@@ -23892,7 +23914,7 @@
         <v>11.91000000000002</v>
       </c>
       <c r="K464" t="n">
-        <v>25.33333333333326</v>
+        <v>-3.448275862068881</v>
       </c>
       <c r="L464" t="n">
         <v>6.681999999999992</v>
@@ -23943,7 +23965,7 @@
         <v>11.91000000000002</v>
       </c>
       <c r="K465" t="n">
-        <v>38.23529411764697</v>
+        <v>16.66666666666654</v>
       </c>
       <c r="L465" t="n">
         <v>6.680999999999992</v>
@@ -23994,7 +24016,7 @@
         <v>11.92000000000002</v>
       </c>
       <c r="K466" t="n">
-        <v>27.58620689655157</v>
+        <v>0</v>
       </c>
       <c r="L466" t="n">
         <v>6.685999999999991</v>
@@ -24045,7 +24067,7 @@
         <v>11.93000000000002</v>
       </c>
       <c r="K467" t="n">
-        <v>29.82456140350871</v>
+        <v>-4.761904761904641</v>
       </c>
       <c r="L467" t="n">
         <v>6.684999999999991</v>
@@ -24096,7 +24118,7 @@
         <v>11.95000000000002</v>
       </c>
       <c r="K468" t="n">
-        <v>27.58620689655157</v>
+        <v>-13.04347826086965</v>
       </c>
       <c r="L468" t="n">
         <v>6.681999999999991</v>
@@ -24147,7 +24169,7 @@
         <v>12.05000000000002</v>
       </c>
       <c r="K469" t="n">
-        <v>6.060606060606048</v>
+        <v>-39.39393939393936</v>
       </c>
       <c r="L469" t="n">
         <v>6.66899999999999</v>
@@ -24198,7 +24220,7 @@
         <v>12.05000000000002</v>
       </c>
       <c r="K470" t="n">
-        <v>7.692307692307796</v>
+        <v>-13.04347826086937</v>
       </c>
       <c r="L470" t="n">
         <v>6.65599999999999</v>
@@ -24249,7 +24271,7 @@
         <v>12.14000000000002</v>
       </c>
       <c r="K471" t="n">
-        <v>22.22222222222222</v>
+        <v>-13.04347826086975</v>
       </c>
       <c r="L471" t="n">
         <v>6.66199999999999</v>
@@ -24300,7 +24322,7 @@
         <v>12.15000000000002</v>
       </c>
       <c r="K472" t="n">
-        <v>18.30985915492967</v>
+        <v>-16.66666666666679</v>
       </c>
       <c r="L472" t="n">
         <v>6.657999999999991</v>
@@ -24351,7 +24373,7 @@
         <v>12.25000000000002</v>
       </c>
       <c r="K473" t="n">
-        <v>-2.631578947368476</v>
+        <v>-41.17647058823548</v>
       </c>
       <c r="L473" t="n">
         <v>6.643999999999991</v>
@@ -24402,7 +24424,7 @@
         <v>12.35000000000002</v>
       </c>
       <c r="K474" t="n">
-        <v>1.265822784810208</v>
+        <v>-9.090909090909074</v>
       </c>
       <c r="L474" t="n">
         <v>6.639999999999992</v>
@@ -24453,7 +24475,7 @@
         <v>12.36000000000002</v>
       </c>
       <c r="K475" t="n">
-        <v>-8.108108108108134</v>
+        <v>-13.63636363636365</v>
       </c>
       <c r="L475" t="n">
         <v>6.634999999999993</v>
@@ -24504,7 +24526,7 @@
         <v>12.36000000000002</v>
       </c>
       <c r="K476" t="n">
-        <v>-1.449275362318928</v>
+        <v>-11.62790697674426</v>
       </c>
       <c r="L476" t="n">
         <v>6.628999999999992</v>
@@ -24555,7 +24577,7 @@
         <v>12.37000000000002</v>
       </c>
       <c r="K477" t="n">
-        <v>-7.692307692307598</v>
+        <v>-4.761904761904601</v>
       </c>
       <c r="L477" t="n">
         <v>6.624999999999993</v>
@@ -24606,7 +24628,7 @@
         <v>12.45000000000002</v>
       </c>
       <c r="K478" t="n">
-        <v>-17.80821917808204</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>6.614999999999993</v>
@@ -24657,7 +24679,7 @@
         <v>12.53000000000002</v>
       </c>
       <c r="K479" t="n">
-        <v>-6.172839506172774</v>
+        <v>16.66666666666648</v>
       </c>
       <c r="L479" t="n">
         <v>6.622999999999993</v>
@@ -24708,7 +24730,7 @@
         <v>12.53000000000002</v>
       </c>
       <c r="K480" t="n">
-        <v>-6.172839506172774</v>
+        <v>-2.564102564102471</v>
       </c>
       <c r="L480" t="n">
         <v>6.630999999999995</v>
@@ -24759,7 +24781,7 @@
         <v>12.61000000000002</v>
       </c>
       <c r="K481" t="n">
-        <v>-3.797468354430277</v>
+        <v>-17.39130434782587</v>
       </c>
       <c r="L481" t="n">
         <v>6.621999999999995</v>
@@ -24810,7 +24832,7 @@
         <v>12.69000000000002</v>
       </c>
       <c r="K482" t="n">
-        <v>-5.128205128205102</v>
+        <v>22.7272727272726</v>
       </c>
       <c r="L482" t="n">
         <v>6.621999999999995</v>
@@ -24861,7 +24883,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K483" t="n">
-        <v>-3.79746835443039</v>
+        <v>2.85714285714277</v>
       </c>
       <c r="L483" t="n">
         <v>6.632999999999994</v>
@@ -24912,7 +24934,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K484" t="n">
-        <v>-3.79746835443039</v>
+        <v>5.882352941176578</v>
       </c>
       <c r="L484" t="n">
         <v>6.633999999999993</v>
@@ -24963,7 +24985,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K485" t="n">
-        <v>-3.79746835443039</v>
+        <v>5.882352941176578</v>
       </c>
       <c r="L485" t="n">
         <v>6.635999999999993</v>
@@ -25014,7 +25036,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K486" t="n">
-        <v>-5.128205128205102</v>
+        <v>3.030303030302965</v>
       </c>
       <c r="L486" t="n">
         <v>6.637999999999993</v>
@@ -25065,7 +25087,7 @@
         <v>12.85000000000002</v>
       </c>
       <c r="K487" t="n">
-        <v>-19.5652173913043</v>
+        <v>-15.00000000000011</v>
       </c>
       <c r="L487" t="n">
         <v>6.623999999999993</v>
@@ -25116,7 +25138,7 @@
         <v>12.97000000000002</v>
       </c>
       <c r="K488" t="n">
-        <v>-3.921568627450958</v>
+        <v>-4.545454545454637</v>
       </c>
       <c r="L488" t="n">
         <v>6.629999999999993</v>
@@ -25167,7 +25189,7 @@
         <v>13.09000000000002</v>
       </c>
       <c r="K489" t="n">
-        <v>-5.769230769230773</v>
+        <v>-25</v>
       </c>
       <c r="L489" t="n">
         <v>6.615999999999993</v>
@@ -25218,7 +25240,7 @@
         <v>13.14000000000003</v>
       </c>
       <c r="K490" t="n">
-        <v>-0.917431192660605</v>
+        <v>-1.886792452830305</v>
       </c>
       <c r="L490" t="n">
         <v>6.606999999999992</v>
@@ -25269,7 +25291,7 @@
         <v>13.14000000000003</v>
       </c>
       <c r="K491" t="n">
-        <v>-9.999999999999964</v>
+        <v>-20.00000000000004</v>
       </c>
       <c r="L491" t="n">
         <v>6.605999999999992</v>
@@ -25320,7 +25342,7 @@
         <v>13.22000000000002</v>
       </c>
       <c r="K492" t="n">
-        <v>-15.8878504672896</v>
+        <v>-34.61538461538447</v>
       </c>
       <c r="L492" t="n">
         <v>6.588999999999992</v>
@@ -25371,7 +25393,7 @@
         <v>13.36000000000002</v>
       </c>
       <c r="K493" t="n">
-        <v>-18.9189189189188</v>
+        <v>-48.48484848484838</v>
       </c>
       <c r="L493" t="n">
         <v>6.556999999999992</v>
@@ -25422,7 +25444,7 @@
         <v>13.45000000000002</v>
       </c>
       <c r="K494" t="n">
-        <v>-19.99999999999997</v>
+        <v>-30.66666666666665</v>
       </c>
       <c r="L494" t="n">
         <v>6.533999999999992</v>
@@ -25473,7 +25495,7 @@
         <v>13.53000000000002</v>
       </c>
       <c r="K495" t="n">
-        <v>-11.11111111111107</v>
+        <v>-18.07228915662651</v>
       </c>
       <c r="L495" t="n">
         <v>6.518999999999993</v>
@@ -25524,7 +25546,7 @@
         <v>13.54000000000002</v>
       </c>
       <c r="K496" t="n">
-        <v>-11.86440677966096</v>
+        <v>-1.449275362318807</v>
       </c>
       <c r="L496" t="n">
         <v>6.502999999999993</v>
@@ -25575,7 +25597,7 @@
         <v>13.57000000000003</v>
       </c>
       <c r="K497" t="n">
-        <v>-15.00000000000002</v>
+        <v>-26.66666666666663</v>
       </c>
       <c r="L497" t="n">
         <v>6.498999999999993</v>
@@ -25626,7 +25648,7 @@
         <v>13.58000000000003</v>
       </c>
       <c r="K498" t="n">
-        <v>-7.964601769911461</v>
+        <v>-6.122448979591681</v>
       </c>
       <c r="L498" t="n">
         <v>6.483999999999993</v>
@@ -25677,7 +25699,7 @@
         <v>13.59000000000003</v>
       </c>
       <c r="K499" t="n">
-        <v>-16.98113207547166</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L499" t="n">
         <v>6.479999999999992</v>
@@ -25728,7 +25750,7 @@
         <v>13.59000000000003</v>
       </c>
       <c r="K500" t="n">
-        <v>-16.98113207547166</v>
+        <v>-19.99999999999984</v>
       </c>
       <c r="L500" t="n">
         <v>6.470999999999992</v>
@@ -25779,7 +25801,7 @@
         <v>13.70000000000003</v>
       </c>
       <c r="K501" t="n">
-        <v>-19.26605504587146</v>
+        <v>-24.99999999999982</v>
       </c>
       <c r="L501" t="n">
         <v>6.450999999999992</v>
@@ -25830,7 +25852,7 @@
         <v>13.84000000000003</v>
       </c>
       <c r="K502" t="n">
-        <v>-13.04347826086953</v>
+        <v>33.33333333333309</v>
       </c>
       <c r="L502" t="n">
         <v>6.452999999999991</v>
@@ -25881,7 +25903,7 @@
         <v>13.99000000000003</v>
       </c>
       <c r="K503" t="n">
-        <v>-24.03100775193791</v>
+        <v>-14.81481481481471</v>
       </c>
       <c r="L503" t="n">
         <v>6.453999999999991</v>
@@ -25932,7 +25954,7 @@
         <v>14.11000000000003</v>
       </c>
       <c r="K504" t="n">
-        <v>-13.47517730496451</v>
+        <v>-6.896551724137893</v>
       </c>
       <c r="L504" t="n">
         <v>6.45799999999999</v>
@@ -25983,7 +26005,7 @@
         <v>14.18000000000003</v>
       </c>
       <c r="K505" t="n">
-        <v>-8.108108108108084</v>
+        <v>6.249999999999965</v>
       </c>
       <c r="L505" t="n">
         <v>6.46099999999999</v>
@@ -26034,7 +26056,7 @@
         <v>14.22000000000003</v>
       </c>
       <c r="K506" t="n">
-        <v>-10.52631578947366</v>
+        <v>4.615384615384639</v>
       </c>
       <c r="L506" t="n">
         <v>6.46099999999999</v>
@@ -26085,7 +26107,7 @@
         <v>14.22000000000003</v>
       </c>
       <c r="K507" t="n">
-        <v>-0.7299270072992521</v>
+        <v>3.124999999999931</v>
       </c>
       <c r="L507" t="n">
         <v>6.46399999999999</v>
@@ -26136,7 +26158,7 @@
         <v>14.26000000000003</v>
       </c>
       <c r="K508" t="n">
-        <v>-6.976744186046487</v>
+        <v>10.44776119402992</v>
       </c>
       <c r="L508" t="n">
         <v>6.46999999999999</v>
@@ -26187,7 +26209,7 @@
         <v>14.26000000000003</v>
       </c>
       <c r="K509" t="n">
-        <v>2.564102564102582</v>
+        <v>10.44776119402992</v>
       </c>
       <c r="L509" t="n">
         <v>6.476999999999991</v>
@@ -26238,7 +26260,7 @@
         <v>14.27000000000003</v>
       </c>
       <c r="K510" t="n">
-        <v>-2.65486725663711</v>
+        <v>29.82456140350884</v>
       </c>
       <c r="L510" t="n">
         <v>6.482999999999992</v>
@@ -26289,7 +26311,7 @@
         <v>14.27000000000003</v>
       </c>
       <c r="K511" t="n">
-        <v>-2.65486725663711</v>
+        <v>6.976744186046603</v>
       </c>
       <c r="L511" t="n">
         <v>6.499999999999991</v>
@@ -26340,7 +26362,7 @@
         <v>14.27000000000003</v>
       </c>
       <c r="K512" t="n">
-        <v>4.761904761904734</v>
+        <v>64.28571428571506</v>
       </c>
       <c r="L512" t="n">
         <v>6.502999999999991</v>
@@ -26391,7 +26413,7 @@
         <v>14.34000000000003</v>
       </c>
       <c r="K513" t="n">
-        <v>12.24489795918366</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L513" t="n">
         <v>6.513999999999991</v>
@@ -26442,7 +26464,7 @@
         <v>14.35000000000003</v>
       </c>
       <c r="K514" t="n">
-        <v>2.222222222222268</v>
+        <v>-52.94117647058872</v>
       </c>
       <c r="L514" t="n">
         <v>6.511999999999992</v>
@@ -26493,7 +26515,7 @@
         <v>14.43000000000003</v>
       </c>
       <c r="K515" t="n">
-        <v>2.222222222222268</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L515" t="n">
         <v>6.510999999999991</v>
@@ -26544,7 +26566,7 @@
         <v>14.43000000000003</v>
       </c>
       <c r="K516" t="n">
-        <v>3.370786516853952</v>
+        <v>14.28571428571447</v>
       </c>
       <c r="L516" t="n">
         <v>6.513999999999991</v>
@@ -26595,7 +26617,7 @@
         <v>14.44000000000003</v>
       </c>
       <c r="K517" t="n">
-        <v>5.747126436781582</v>
+        <v>-11.11111111111139</v>
       </c>
       <c r="L517" t="n">
         <v>6.515999999999991</v>
@@ -26646,7 +26668,7 @@
         <v>14.51000000000003</v>
       </c>
       <c r="K518" t="n">
-        <v>-3.225806451612931</v>
+        <v>-35.99999999999994</v>
       </c>
       <c r="L518" t="n">
         <v>6.506999999999991</v>
@@ -26697,7 +26719,7 @@
         <v>14.58000000000003</v>
       </c>
       <c r="K519" t="n">
-        <v>5.05050505050504</v>
+        <v>-3.225806451613115</v>
       </c>
       <c r="L519" t="n">
         <v>6.50499999999999</v>
@@ -26748,7 +26770,7 @@
         <v>14.59000000000003</v>
       </c>
       <c r="K520" t="n">
-        <v>6.00000000000005</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>6.50499999999999</v>
@@ -26799,7 +26821,7 @@
         <v>14.60000000000003</v>
       </c>
       <c r="K521" t="n">
-        <v>19.99999999999996</v>
+        <v>3.030303030302949</v>
       </c>
       <c r="L521" t="n">
         <v>6.50599999999999</v>
@@ -26850,7 +26872,7 @@
         <v>14.61000000000003</v>
       </c>
       <c r="K522" t="n">
-        <v>3.896103896103931</v>
+        <v>25.9259259259259</v>
       </c>
       <c r="L522" t="n">
         <v>6.50599999999999</v>
@@ -26901,7 +26923,7 @@
         <v>14.69000000000003</v>
       </c>
       <c r="K523" t="n">
-        <v>14.28571428571438</v>
+        <v>0</v>
       </c>
       <c r="L523" t="n">
         <v>6.504999999999991</v>
@@ -26952,7 +26974,7 @@
         <v>14.77000000000003</v>
       </c>
       <c r="K524" t="n">
-        <v>9.090909090909165</v>
+        <v>0</v>
       </c>
       <c r="L524" t="n">
         <v>6.512999999999991</v>
@@ -27003,7 +27025,7 @@
         <v>14.77000000000003</v>
       </c>
       <c r="K525" t="n">
-        <v>-1.694915254237252</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>6.512999999999991</v>
@@ -27054,7 +27076,7 @@
         <v>14.77000000000003</v>
       </c>
       <c r="K526" t="n">
-        <v>5.454545454545492</v>
+        <v>3.030303030303218</v>
       </c>
       <c r="L526" t="n">
         <v>6.512999999999991</v>
@@ -27105,7 +27127,7 @@
         <v>14.79000000000003</v>
       </c>
       <c r="K527" t="n">
-        <v>1.754385964912242</v>
+        <v>21.4285714285712</v>
       </c>
       <c r="L527" t="n">
         <v>6.511999999999992</v>
@@ -27156,7 +27178,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K528" t="n">
-        <v>-7.407407407407401</v>
+        <v>-9.09090909090887</v>
       </c>
       <c r="L528" t="n">
         <v>6.516999999999991</v>
@@ -27207,7 +27229,7 @@
         <v>14.80000000000003</v>
       </c>
       <c r="K529" t="n">
-        <v>-7.407407407407401</v>
+        <v>-14.28571428571447</v>
       </c>
       <c r="L529" t="n">
         <v>6.514999999999992</v>
@@ -27258,7 +27280,7 @@
         <v>14.83000000000003</v>
       </c>
       <c r="K530" t="n">
-        <v>0</v>
+        <v>-4.347826086956454</v>
       </c>
       <c r="L530" t="n">
         <v>6.514999999999992</v>
@@ -27309,7 +27331,7 @@
         <v>14.84000000000003</v>
       </c>
       <c r="K531" t="n">
-        <v>-1.754385964912393</v>
+        <v>-4.347826086956808</v>
       </c>
       <c r="L531" t="n">
         <v>6.512999999999991</v>
@@ -27360,7 +27382,7 @@
         <v>14.87000000000003</v>
       </c>
       <c r="K532" t="n">
-        <v>-6.666666666666657</v>
+        <v>22.22222222222228</v>
       </c>
       <c r="L532" t="n">
         <v>6.508999999999991</v>
@@ -27411,7 +27433,7 @@
         <v>14.89000000000003</v>
       </c>
       <c r="K533" t="n">
-        <v>9.090909090909047</v>
+        <v>-16.66666666666716</v>
       </c>
       <c r="L533" t="n">
         <v>6.514999999999991</v>
@@ -27462,7 +27484,7 @@
         <v>14.95000000000003</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>-44.44444444444456</v>
       </c>
       <c r="L534" t="n">
         <v>6.506999999999991</v>
@@ -27513,7 +27535,7 @@
         <v>15.04000000000003</v>
       </c>
       <c r="K535" t="n">
-        <v>-27.86885245901632</v>
+        <v>-62.96296296296303</v>
       </c>
       <c r="L535" t="n">
         <v>6.48999999999999</v>
@@ -27564,7 +27586,7 @@
         <v>15.04000000000003</v>
       </c>
       <c r="K536" t="n">
-        <v>-27.86885245901632</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L536" t="n">
         <v>6.47299999999999</v>
@@ -27615,7 +27637,7 @@
         <v>15.16000000000003</v>
       </c>
       <c r="K537" t="n">
-        <v>-38.88888888888867</v>
+        <v>-72.22222222222192</v>
       </c>
       <c r="L537" t="n">
         <v>6.445999999999989</v>
@@ -27666,7 +27688,7 @@
         <v>15.22000000000003</v>
       </c>
       <c r="K538" t="n">
-        <v>-21.12676056338031</v>
+        <v>-47.61904761904767</v>
       </c>
       <c r="L538" t="n">
         <v>6.425999999999989</v>
@@ -27717,7 +27739,7 @@
         <v>15.38000000000003</v>
       </c>
       <c r="K539" t="n">
-        <v>-7.499999999999944</v>
+        <v>-12.72727272727276</v>
       </c>
       <c r="L539" t="n">
         <v>6.421999999999988</v>
@@ -27768,7 +27790,7 @@
         <v>15.60000000000003</v>
       </c>
       <c r="K540" t="n">
-        <v>-28.71287128712877</v>
+        <v>-36.84210526315791</v>
       </c>
       <c r="L540" t="n">
         <v>6.392999999999988</v>
@@ -27819,7 +27841,7 @@
         <v>15.66000000000003</v>
       </c>
       <c r="K541" t="n">
-        <v>-22.64150943396235</v>
+        <v>-24.05063291139253</v>
       </c>
       <c r="L541" t="n">
         <v>6.370999999999988</v>
@@ -27870,7 +27892,7 @@
         <v>15.66000000000003</v>
       </c>
       <c r="K542" t="n">
-        <v>-21.904761904762</v>
+        <v>-27.27272727272735</v>
       </c>
       <c r="L542" t="n">
         <v>6.351999999999988</v>
@@ -27921,7 +27943,7 @@
         <v>15.66000000000003</v>
       </c>
       <c r="K543" t="n">
-        <v>-15.46391752577328</v>
+        <v>-21.12676056338041</v>
       </c>
       <c r="L543" t="n">
         <v>6.330999999999988</v>
@@ -27972,7 +27994,7 @@
         <v>15.69000000000003</v>
       </c>
       <c r="K544" t="n">
-        <v>-21.73913043478267</v>
+        <v>-4.615384615384664</v>
       </c>
       <c r="L544" t="n">
         <v>6.318999999999988</v>
@@ -28023,7 +28045,7 @@
         <v>15.80000000000003</v>
       </c>
       <c r="K545" t="n">
-        <v>-8.73786407766991</v>
+        <v>10.52631578947372</v>
       </c>
       <c r="L545" t="n">
         <v>6.326999999999988</v>
@@ -28074,7 +28096,7 @@
         <v>15.81000000000003</v>
       </c>
       <c r="K546" t="n">
-        <v>-9.615384615384674</v>
+        <v>29.23076923076922</v>
       </c>
       <c r="L546" t="n">
         <v>6.333999999999987</v>
@@ -28125,7 +28147,7 @@
         <v>15.83000000000003</v>
       </c>
       <c r="K547" t="n">
-        <v>-5.769230769230736</v>
+        <v>24.59016393442631</v>
       </c>
       <c r="L547" t="n">
         <v>6.354999999999988</v>
@@ -28176,7 +28198,7 @@
         <v>15.85000000000003</v>
       </c>
       <c r="K548" t="n">
-        <v>-6.6666666666667</v>
+        <v>-6.382978723404324</v>
       </c>
       <c r="L548" t="n">
         <v>6.367999999999988</v>
@@ -28227,7 +28249,7 @@
         <v>16.00000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>-18.33333333333335</v>
+        <v>10.00000000000004</v>
       </c>
       <c r="L549" t="n">
         <v>6.349999999999988</v>
@@ -28278,7 +28300,7 @@
         <v>16.14000000000003</v>
       </c>
       <c r="K550" t="n">
-        <v>-8.396946564885528</v>
+        <v>25</v>
       </c>
       <c r="L550" t="n">
         <v>6.367999999999987</v>
@@ -28329,7 +28351,7 @@
         <v>16.16000000000003</v>
       </c>
       <c r="K551" t="n">
-        <v>-9.090909090909054</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L551" t="n">
         <v>6.377999999999988</v>
@@ -28380,7 +28402,7 @@
         <v>16.27000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>-14.28571428571433</v>
+        <v>-1.639344262295048</v>
       </c>
       <c r="L552" t="n">
         <v>6.376999999999988</v>
@@ -28431,7 +28453,7 @@
         <v>16.33000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>-11.11111111111115</v>
+        <v>3.124999999999948</v>
       </c>
       <c r="L553" t="n">
         <v>6.381999999999988</v>
@@ -28482,7 +28504,7 @@
         <v>16.36000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>-4.964539007092231</v>
+        <v>-10.71428571428583</v>
       </c>
       <c r="L554" t="n">
         <v>6.386999999999988</v>
@@ -28533,7 +28555,7 @@
         <v>16.44000000000003</v>
       </c>
       <c r="K555" t="n">
-        <v>-4.285714285714326</v>
+        <v>-20.63492063492065</v>
       </c>
       <c r="L555" t="n">
         <v>6.372999999999988</v>
@@ -28584,7 +28606,7 @@
         <v>16.51000000000003</v>
       </c>
       <c r="K556" t="n">
-        <v>0.6802721088435234</v>
+        <v>-11.76470588235296</v>
       </c>
       <c r="L556" t="n">
         <v>6.366999999999988</v>
@@ -28635,7 +28657,7 @@
         <v>16.55000000000003</v>
       </c>
       <c r="K557" t="n">
-        <v>12.23021582733815</v>
+        <v>-2.857142857142799</v>
       </c>
       <c r="L557" t="n">
         <v>6.362999999999988</v>
@@ -28686,7 +28708,7 @@
         <v>16.55000000000003</v>
       </c>
       <c r="K558" t="n">
-        <v>8.270676691729358</v>
+        <v>23.63636363636359</v>
       </c>
       <c r="L558" t="n">
         <v>6.360999999999988</v>
@@ -28737,7 +28759,7 @@
         <v>16.56000000000002</v>
       </c>
       <c r="K559" t="n">
-        <v>-5.084745762711848</v>
+        <v>-4.761904761904681</v>
       </c>
       <c r="L559" t="n">
         <v>6.372999999999988</v>
@@ -28788,7 +28810,7 @@
         <v>16.57000000000003</v>
       </c>
       <c r="K560" t="n">
-        <v>15.46391752577316</v>
+        <v>-2.439024390244066</v>
       </c>
       <c r="L560" t="n">
         <v>6.369999999999988</v>
@@ -28839,7 +28861,7 @@
         <v>16.58000000000003</v>
       </c>
       <c r="K561" t="n">
-        <v>8.695652173913034</v>
+        <v>29.03225806451587</v>
       </c>
       <c r="L561" t="n">
         <v>6.367999999999987</v>
@@ -28890,7 +28912,7 @@
         <v>16.68000000000003</v>
       </c>
       <c r="K562" t="n">
-        <v>-1.960784313725442</v>
+        <v>-19.99999999999954</v>
       </c>
       <c r="L562" t="n">
         <v>6.366999999999987</v>
@@ -28941,7 +28963,7 @@
         <v>16.69000000000003</v>
       </c>
       <c r="K563" t="n">
-        <v>-0.9708737864077452</v>
+        <v>-27.27272727272708</v>
       </c>
       <c r="L563" t="n">
         <v>6.360999999999986</v>
@@ -28992,7 +29014,7 @@
         <v>16.74000000000003</v>
       </c>
       <c r="K564" t="n">
-        <v>0.9523809523809315</v>
+        <v>13.33333333333331</v>
       </c>
       <c r="L564" t="n">
         <v>6.356999999999986</v>
@@ -29043,7 +29065,7 @@
         <v>16.84000000000002</v>
       </c>
       <c r="K565" t="n">
-        <v>-19.23076923076926</v>
+        <v>-39.39393939393956</v>
       </c>
       <c r="L565" t="n">
         <v>6.350999999999987</v>
@@ -29094,7 +29116,7 @@
         <v>16.85000000000002</v>
       </c>
       <c r="K566" t="n">
-        <v>-17.30769230769235</v>
+        <v>-53.33333333333389</v>
       </c>
       <c r="L566" t="n">
         <v>6.338999999999986</v>
@@ -29145,7 +29167,7 @@
         <v>16.86000000000002</v>
       </c>
       <c r="K567" t="n">
-        <v>-20.38834951456322</v>
+        <v>-54.83870967742018</v>
       </c>
       <c r="L567" t="n">
         <v>6.321999999999987</v>
@@ -29196,7 +29218,7 @@
         <v>16.93000000000002</v>
       </c>
       <c r="K568" t="n">
-        <v>-11.11111111111118</v>
+        <v>-24.3243243243247</v>
       </c>
       <c r="L568" t="n">
         <v>6.311999999999988</v>
@@ -29247,7 +29269,7 @@
         <v>16.96000000000002</v>
       </c>
       <c r="K569" t="n">
-        <v>0</v>
+        <v>-28.20512820512828</v>
       </c>
       <c r="L569" t="n">
         <v>6.299999999999988</v>
@@ -29298,7 +29320,7 @@
         <v>17.02000000000002</v>
       </c>
       <c r="K570" t="n">
-        <v>-22.72727272727277</v>
+        <v>-36.36363636363658</v>
       </c>
       <c r="L570" t="n">
         <v>6.282999999999989</v>
@@ -29349,7 +29371,7 @@
         <v>17.05000000000003</v>
       </c>
       <c r="K571" t="n">
-        <v>-16.85393258426969</v>
+        <v>-8.108108108108231</v>
       </c>
       <c r="L571" t="n">
         <v>6.269999999999988</v>
@@ -29400,7 +29422,7 @@
         <v>17.05000000000003</v>
       </c>
       <c r="K572" t="n">
-        <v>-5.128205128205125</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L572" t="n">
         <v>6.266999999999987</v>
@@ -29451,7 +29473,7 @@
         <v>17.09000000000002</v>
       </c>
       <c r="K573" t="n">
-        <v>-7.894736842105196</v>
+        <v>-14.28571428571432</v>
       </c>
       <c r="L573" t="n">
         <v>6.266999999999988</v>
@@ -29502,7 +29524,7 @@
         <v>17.13000000000002</v>
       </c>
       <c r="K574" t="n">
-        <v>-6.493506493506473</v>
+        <v>31.03448275862073</v>
       </c>
       <c r="L574" t="n">
         <v>6.265999999999988</v>
@@ -29553,7 +29575,7 @@
         <v>17.21000000000002</v>
       </c>
       <c r="K575" t="n">
-        <v>-6.493506493506504</v>
+        <v>0</v>
       </c>
       <c r="L575" t="n">
         <v>6.266999999999988</v>
@@ -29604,7 +29626,7 @@
         <v>17.25000000000002</v>
       </c>
       <c r="K576" t="n">
-        <v>-10.81081081081089</v>
+        <v>12.82051282051276</v>
       </c>
       <c r="L576" t="n">
         <v>6.270999999999988</v>
@@ -29655,7 +29677,7 @@
         <v>17.25000000000002</v>
       </c>
       <c r="K577" t="n">
-        <v>-17.14285714285726</v>
+        <v>-6.249999999999861</v>
       </c>
       <c r="L577" t="n">
         <v>6.275999999999988</v>
@@ -29706,7 +29728,7 @@
         <v>17.28000000000002</v>
       </c>
       <c r="K578" t="n">
-        <v>-12.3287671232877</v>
+        <v>12.5</v>
       </c>
       <c r="L578" t="n">
         <v>6.276999999999989</v>
@@ -29757,7 +29779,7 @@
         <v>17.29000000000002</v>
       </c>
       <c r="K579" t="n">
-        <v>-9.58904109589049</v>
+        <v>40.74074074074146</v>
       </c>
       <c r="L579" t="n">
         <v>6.281999999999988</v>
@@ -29808,7 +29830,7 @@
         <v>17.30000000000002</v>
       </c>
       <c r="K580" t="n">
-        <v>-6.849315068493189</v>
+        <v>36.00000000000097</v>
       </c>
       <c r="L580" t="n">
         <v>6.293999999999988</v>
@@ -29859,7 +29881,7 @@
         <v>17.30000000000002</v>
       </c>
       <c r="K581" t="n">
-        <v>-5.555555555555624</v>
+        <v>36.00000000000097</v>
       </c>
       <c r="L581" t="n">
         <v>6.302999999999988</v>
@@ -29910,7 +29932,7 @@
         <v>17.32000000000002</v>
       </c>
       <c r="K582" t="n">
-        <v>6.250000000000104</v>
+        <v>13.04347826087005</v>
       </c>
       <c r="L582" t="n">
         <v>6.309999999999988</v>
@@ -29961,7 +29983,7 @@
         <v>17.34000000000002</v>
       </c>
       <c r="K583" t="n">
-        <v>1.538461538461526</v>
+        <v>-14.28571428571483</v>
       </c>
       <c r="L583" t="n">
         <v>6.310999999999988</v>
@@ -30012,7 +30034,7 @@
         <v>17.43000000000002</v>
       </c>
       <c r="K584" t="n">
-        <v>-18.84057971014517</v>
+        <v>-18.18181818181858</v>
       </c>
       <c r="L584" t="n">
         <v>6.298999999999988</v>
@@ -30063,7 +30085,7 @@
         <v>17.50000000000002</v>
       </c>
       <c r="K585" t="n">
-        <v>6.06060606060613</v>
+        <v>-3.999999999999972</v>
       </c>
       <c r="L585" t="n">
         <v>6.301999999999988</v>
@@ -30114,7 +30136,7 @@
         <v>17.51000000000002</v>
       </c>
       <c r="K586" t="n">
-        <v>3.030303030302981</v>
+        <v>-7.692307692307929</v>
       </c>
       <c r="L586" t="n">
         <v>6.299999999999988</v>
@@ -30165,7 +30187,7 @@
         <v>17.51000000000002</v>
       </c>
       <c r="K587" t="n">
-        <v>4.615384615384527</v>
+        <v>-21.73913043478321</v>
       </c>
       <c r="L587" t="n">
         <v>6.297999999999988</v>
@@ -30216,7 +30238,7 @@
         <v>17.59000000000002</v>
       </c>
       <c r="K588" t="n">
-        <v>-18.18181818181816</v>
+        <v>-46.666666666667</v>
       </c>
       <c r="L588" t="n">
         <v>6.284999999999989</v>
@@ -30267,7 +30289,7 @@
         <v>17.67000000000002</v>
       </c>
       <c r="K589" t="n">
-        <v>-1.408450704225459</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L589" t="n">
         <v>6.278999999999989</v>
@@ -30318,7 +30340,7 @@
         <v>17.67000000000002</v>
       </c>
       <c r="K590" t="n">
-        <v>7.692307692307766</v>
+        <v>-18.91891891891913</v>
       </c>
       <c r="L590" t="n">
         <v>6.271999999999989</v>
@@ -30369,7 +30391,7 @@
         <v>17.68000000000002</v>
       </c>
       <c r="K591" t="n">
-        <v>4.761904761904863</v>
+        <v>-11.11111111111114</v>
       </c>
       <c r="L591" t="n">
         <v>6.265999999999988</v>
@@ -30420,7 +30442,7 @@
         <v>17.68000000000002</v>
       </c>
       <c r="K592" t="n">
-        <v>4.761904761904863</v>
+        <v>-5.882352941176348</v>
       </c>
       <c r="L592" t="n">
         <v>6.261999999999988</v>
@@ -30471,7 +30493,7 @@
         <v>17.69000000000002</v>
       </c>
       <c r="K593" t="n">
-        <v>-3.333333333333442</v>
+        <v>23.07692307692279</v>
       </c>
       <c r="L593" t="n">
         <v>6.258999999999989</v>
@@ -30522,7 +30544,7 @@
         <v>17.75000000000002</v>
       </c>
       <c r="K594" t="n">
-        <v>-19.35483870967763</v>
+        <v>-28.00000000000011</v>
       </c>
       <c r="L594" t="n">
         <v>6.258999999999988</v>
@@ -30573,7 +30595,7 @@
         <v>17.75000000000002</v>
       </c>
       <c r="K595" t="n">
-        <v>-7.407407407407475</v>
+        <v>-25</v>
       </c>
       <c r="L595" t="n">
         <v>6.251999999999988</v>
@@ -30624,7 +30646,7 @@
         <v>17.78000000000002</v>
       </c>
       <c r="K596" t="n">
-        <v>-20.75471698113223</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L596" t="n">
         <v>6.242999999999988</v>
@@ -30675,7 +30697,7 @@
         <v>17.79000000000002</v>
       </c>
       <c r="K597" t="n">
-        <v>-18.51851851851848</v>
+        <v>0</v>
       </c>
       <c r="L597" t="n">
         <v>6.234999999999988</v>
@@ -30726,7 +30748,7 @@
         <v>17.81000000000002</v>
       </c>
       <c r="K598" t="n">
-        <v>-28.30188679245303</v>
+        <v>-71.42857142856907</v>
       </c>
       <c r="L598" t="n">
         <v>6.232999999999988</v>
@@ -30777,7 +30799,7 @@
         <v>17.82000000000002</v>
       </c>
       <c r="K599" t="n">
-        <v>-28.30188679245283</v>
+        <v>-59.99999999999763</v>
       </c>
       <c r="L599" t="n">
         <v>6.223999999999988</v>
@@ -30828,7 +30850,7 @@
         <v>17.88000000000002</v>
       </c>
       <c r="K600" t="n">
-        <v>-17.24137931034461</v>
+        <v>-19.99999999999938</v>
       </c>
       <c r="L600" t="n">
         <v>6.220999999999988</v>
@@ -30879,7 +30901,7 @@
         <v>17.93000000000002</v>
       </c>
       <c r="K601" t="n">
-        <v>-7.936507936507832</v>
+        <v>3.999999999999801</v>
       </c>
       <c r="L601" t="n">
         <v>6.221999999999989</v>
@@ -30930,7 +30952,7 @@
         <v>18.01000000000003</v>
       </c>
       <c r="K602" t="n">
-        <v>7.246376811594089</v>
+        <v>31.24999999999945</v>
       </c>
       <c r="L602" t="n">
         <v>6.230999999999989</v>
@@ -30981,7 +31003,7 @@
         <v>18.04000000000003</v>
       </c>
       <c r="K603" t="n">
-        <v>5.714285714285639</v>
+        <v>44.827586206895</v>
       </c>
       <c r="L603" t="n">
         <v>6.23799999999999</v>
@@ -31032,7 +31054,7 @@
         <v>18.11000000000003</v>
       </c>
       <c r="K604" t="n">
-        <v>8.823529411764513</v>
+        <v>16.66666666666609</v>
       </c>
       <c r="L604" t="n">
         <v>6.243999999999989</v>
@@ -31083,7 +31105,7 @@
         <v>18.18000000000003</v>
       </c>
       <c r="K605" t="n">
-        <v>8.823529411764513</v>
+        <v>39.99999999999911</v>
       </c>
       <c r="L605" t="n">
         <v>6.256999999999989</v>
@@ -31134,7 +31156,7 @@
         <v>18.21000000000003</v>
       </c>
       <c r="K606" t="n">
-        <v>14.28571428571416</v>
+        <v>42.85714285714189</v>
       </c>
       <c r="L606" t="n">
         <v>6.275999999999988</v>
@@ -31185,7 +31207,7 @@
         <v>18.31000000000003</v>
       </c>
       <c r="K607" t="n">
-        <v>0</v>
+        <v>19.9999999999995</v>
       </c>
       <c r="L607" t="n">
         <v>6.283999999999989</v>
@@ -31236,7 +31258,7 @@
         <v>18.34000000000003</v>
       </c>
       <c r="K608" t="n">
-        <v>14.66666666666631</v>
+        <v>23.07692307692264</v>
       </c>
       <c r="L608" t="n">
         <v>6.296999999999988</v>
@@ -31287,7 +31309,7 @@
         <v>18.43000000000003</v>
       </c>
       <c r="K609" t="n">
-        <v>-7.894736842105048</v>
+        <v>-5.454545454545422</v>
       </c>
       <c r="L609" t="n">
         <v>6.299999999999988</v>
@@ -31338,7 +31360,7 @@
         <v>18.43000000000003</v>
       </c>
       <c r="K610" t="n">
-        <v>-7.894736842105048</v>
+        <v>-15.99999999999979</v>
       </c>
       <c r="L610" t="n">
         <v>6.296999999999988</v>
@@ -31389,7 +31411,7 @@
         <v>18.51000000000003</v>
       </c>
       <c r="K611" t="n">
-        <v>1.204819277108385</v>
+        <v>-15.99999999999979</v>
       </c>
       <c r="L611" t="n">
         <v>6.296999999999988</v>
@@ -31440,7 +31462,7 @@
         <v>18.52000000000003</v>
       </c>
       <c r="K612" t="n">
-        <v>2.38095238095229</v>
+        <v>-8.333333333333272</v>
       </c>
       <c r="L612" t="n">
         <v>6.289999999999988</v>
@@ -31491,7 +31513,7 @@
         <v>18.52000000000003</v>
       </c>
       <c r="K613" t="n">
-        <v>3.614457831325277</v>
+        <v>7.317073170731703</v>
       </c>
       <c r="L613" t="n">
         <v>6.285999999999989</v>
@@ -31542,7 +31564,7 @@
         <v>18.52000000000003</v>
       </c>
       <c r="K614" t="n">
-        <v>11.68831168831146</v>
+        <v>-11.76470588235283</v>
       </c>
       <c r="L614" t="n">
         <v>6.288999999999989</v>
@@ -31593,7 +31615,7 @@
         <v>18.52000000000003</v>
       </c>
       <c r="K615" t="n">
-        <v>11.68831168831146</v>
+        <v>-22.58064516129025</v>
       </c>
       <c r="L615" t="n">
         <v>6.284999999999988</v>
@@ -31644,7 +31666,7 @@
         <v>18.52000000000003</v>
       </c>
       <c r="K616" t="n">
-        <v>16.21621621621595</v>
+        <v>14.28571428571435</v>
       </c>
       <c r="L616" t="n">
         <v>6.277999999999988</v>
@@ -31695,7 +31717,7 @@
         <v>18.61000000000003</v>
       </c>
       <c r="K617" t="n">
-        <v>2.439024390243818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L617" t="n">
         <v>6.271999999999989</v>
@@ -31746,7 +31768,7 @@
         <v>18.68000000000003</v>
       </c>
       <c r="K618" t="n">
-        <v>12.64367816091941</v>
+        <v>28.00000000000011</v>
       </c>
       <c r="L618" t="n">
         <v>6.269999999999989</v>
@@ -31797,7 +31819,7 @@
         <v>18.75000000000003</v>
       </c>
       <c r="K619" t="n">
-        <v>3.225806451612894</v>
+        <v>0</v>
       </c>
       <c r="L619" t="n">
         <v>6.269999999999988</v>
@@ -31848,7 +31870,7 @@
         <v>18.79000000000003</v>
       </c>
       <c r="K620" t="n">
-        <v>1.098901098901067</v>
+        <v>-14.28571428571442</v>
       </c>
       <c r="L620" t="n">
         <v>6.273999999999988</v>
@@ -31899,7 +31921,7 @@
         <v>18.83000000000003</v>
       </c>
       <c r="K621" t="n">
-        <v>-8.888888888888841</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L621" t="n">
         <v>6.265999999999988</v>
@@ -31950,7 +31972,7 @@
         <v>18.83000000000003</v>
       </c>
       <c r="K622" t="n">
-        <v>-19.51219512195114</v>
+        <v>-29.0322580645162</v>
       </c>
       <c r="L622" t="n">
         <v>6.256999999999988</v>
@@ -32001,7 +32023,7 @@
         <v>18.84000000000003</v>
       </c>
       <c r="K623" t="n">
-        <v>-14.99999999999993</v>
+        <v>-25</v>
       </c>
       <c r="L623" t="n">
         <v>6.248999999999988</v>
@@ -32052,7 +32074,7 @@
         <v>18.88000000000003</v>
       </c>
       <c r="K624" t="n">
-        <v>-11.68831168831162</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L624" t="n">
         <v>6.236999999999988</v>
@@ -32103,7 +32125,7 @@
         <v>18.88000000000003</v>
       </c>
       <c r="K625" t="n">
-        <v>-22.85714285714278</v>
+        <v>-33.33333333333341</v>
       </c>
       <c r="L625" t="n">
         <v>6.224999999999987</v>
@@ -32154,7 +32176,7 @@
         <v>18.93000000000003</v>
       </c>
       <c r="K626" t="n">
-        <v>-19.44444444444433</v>
+        <v>6.250000000000139</v>
       </c>
       <c r="L626" t="n">
         <v>6.217999999999988</v>
@@ -32205,7 +32227,7 @@
         <v>18.93000000000003</v>
       </c>
       <c r="K627" t="n">
-        <v>-6.45161290322566</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L627" t="n">
         <v>6.219999999999988</v>

--- a/BackTest/2019-10-14 BackTest FAB.xlsx
+++ b/BackTest/2019-10-14 BackTest FAB.xlsx
@@ -559,7 +559,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1816,17 +1816,13 @@
         <v>6.111333333333329</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K41" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1855,22 +1851,14 @@
         <v>6.110499999999996</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1898,22 +1886,14 @@
         <v>6.110166666666662</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K43" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1941,22 +1921,14 @@
         <v>6.109499999999995</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.97</v>
-      </c>
-      <c r="K44" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1984,22 +1956,14 @@
         <v>6.107333333333329</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K45" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2027,22 +1991,14 @@
         <v>6.104999999999995</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="K46" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2078,12 +2034,10 @@
       <c r="J47" t="n">
         <v>5.92</v>
       </c>
-      <c r="K47" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M47" t="n">
@@ -2113,17 +2067,13 @@
         <v>6.100833333333329</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="K48" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2164,9 +2114,7 @@
       <c r="J49" t="n">
         <v>5.95</v>
       </c>
-      <c r="K49" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2205,11 +2153,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K50" t="n">
-        <v>6.02</v>
-      </c>
+        <v>6.01</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2248,11 +2194,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K51" t="n">
         <v>6.02</v>
       </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2285,17 +2229,13 @@
         <v>6.098166666666661</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K52" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2328,17 +2268,13 @@
         <v>6.09766666666666</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K53" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,17 +2307,13 @@
         <v>6.09716666666666</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K54" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2414,17 +2346,13 @@
         <v>6.09666666666666</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K55" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2457,17 +2385,13 @@
         <v>6.096166666666659</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K56" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2500,17 +2424,13 @@
         <v>6.095333333333325</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2543,17 +2463,13 @@
         <v>6.094499999999992</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2586,17 +2502,13 @@
         <v>6.093499999999992</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="K59" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2629,17 +2541,13 @@
         <v>6.091666666666658</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>6</v>
-      </c>
-      <c r="K60" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2672,17 +2580,13 @@
         <v>6.088999999999991</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K61" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2715,17 +2619,13 @@
         <v>6.085833333333325</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,17 +2658,13 @@
         <v>6.081499999999991</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K63" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2801,17 +2697,13 @@
         <v>6.077166666666658</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K64" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2844,17 +2736,13 @@
         <v>6.073999999999992</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K65" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2887,17 +2775,13 @@
         <v>6.069166666666658</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2930,17 +2814,13 @@
         <v>6.064499999999992</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>6</v>
-      </c>
-      <c r="K67" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2973,17 +2853,13 @@
         <v>6.059666666666658</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K68" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,17 +2892,13 @@
         <v>6.054666666666658</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K69" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3059,17 +2931,13 @@
         <v>6.048666666666658</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K70" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3102,17 +2970,13 @@
         <v>6.043999999999991</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="K71" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3145,17 +3009,13 @@
         <v>6.038666666666657</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3188,17 +3048,13 @@
         <v>6.033666666666657</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>6</v>
-      </c>
-      <c r="K73" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3231,17 +3087,13 @@
         <v>6.027833333333323</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="K74" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3274,17 +3126,13 @@
         <v>6.022166666666656</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K75" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,17 +3165,13 @@
         <v>6.019166666666655</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K76" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,17 +3204,13 @@
         <v>6.016833333333323</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="K77" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3403,17 +3243,13 @@
         <v>6.016333333333322</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K78" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,17 +3282,13 @@
         <v>6.017166666666656</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K79" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,17 +3321,13 @@
         <v>6.017333333333323</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="K80" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3538,9 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3579,9 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,9 +3444,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3661,9 +3483,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3702,9 +3522,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3743,9 +3561,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3784,9 +3600,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3825,9 +3639,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3866,9 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3907,9 +3717,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3948,9 +3756,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3989,9 +3795,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,9 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4071,9 +3873,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4112,9 +3912,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4153,9 +3951,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4194,9 +3990,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4235,9 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,9 +4068,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,9 +4107,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4358,9 +4146,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4399,9 +4185,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4440,9 +4224,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4481,9 +4263,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,9 +4302,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,9 +4341,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4604,9 +4380,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4645,9 +4419,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4686,9 +4458,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4727,9 +4497,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4768,9 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4809,9 +4575,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4850,9 +4614,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4891,9 +4653,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4932,9 +4692,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4973,9 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5014,9 +4770,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5055,9 +4809,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5096,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5137,9 +4887,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5178,9 +4926,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5219,9 +4965,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5260,9 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5301,9 +5043,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5342,9 +5082,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5383,9 +5121,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5424,9 +5160,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5465,9 +5199,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5506,9 +5238,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5547,9 +5277,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5588,9 +5316,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5629,9 +5355,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5670,9 +5394,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5711,9 +5433,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5752,9 +5472,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,9 +5511,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5834,9 +5550,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5875,9 +5589,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5916,9 +5628,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5957,9 +5667,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5998,9 +5706,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6039,9 +5745,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6080,9 +5784,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6121,9 +5823,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6162,9 +5862,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6203,9 +5901,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6244,9 +5940,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6285,9 +5979,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,9 +6018,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,9 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6408,9 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6449,9 +6135,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,9 +6174,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6531,9 +6213,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6572,9 +6252,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6613,9 +6291,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6654,9 +6330,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6695,9 +6369,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6736,9 +6408,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6777,9 +6447,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6818,9 +6486,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6859,9 +6525,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6900,9 +6564,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6941,9 +6603,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6982,9 +6642,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7023,9 +6681,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7064,9 +6720,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7105,9 +6759,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7146,9 +6798,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7187,9 +6837,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7228,9 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7269,9 +6915,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7310,9 +6954,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7351,9 +6993,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7032,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7433,9 +7071,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,9 +7110,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7515,9 +7149,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7556,9 +7188,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7597,9 +7227,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,9 +7266,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7679,9 +7305,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7720,9 +7344,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7761,9 +7383,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7802,9 +7422,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7843,9 +7461,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7884,9 +7500,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7925,9 +7539,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7966,9 +7578,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8007,9 +7617,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8048,9 +7656,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8089,9 +7695,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8130,9 +7734,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8171,9 +7773,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8212,9 +7812,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,9 +7851,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,9 +7890,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8335,9 +7929,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,9 +7968,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8417,9 +8007,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8458,9 +8046,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8499,9 +8085,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8540,9 +8124,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8581,9 +8163,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8622,9 +8202,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8663,9 +8241,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,9 +8280,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8745,9 +8319,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8786,9 +8358,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8827,9 +8397,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8868,9 +8436,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8909,9 +8475,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,9 +8514,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8991,9 +8553,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9032,9 +8592,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9073,9 +8631,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9114,9 +8670,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9155,9 +8709,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9196,9 +8748,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9237,9 +8787,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9278,9 +8826,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9319,9 +8865,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9360,9 +8904,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9401,9 +8943,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9442,9 +8982,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9483,9 +9021,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9524,9 +9060,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9565,9 +9099,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9606,9 +9138,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9647,9 +9177,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9688,9 +9216,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,9 +9255,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9770,9 +9294,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9811,9 +9333,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9852,9 +9372,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9893,9 +9411,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9934,9 +9450,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9975,9 +9489,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10016,9 +9528,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10057,9 +9567,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10098,9 +9606,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10139,9 +9645,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10180,9 +9684,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10221,9 +9723,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10262,9 +9762,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10303,9 +9801,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10344,9 +9840,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10385,9 +9879,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10426,9 +9918,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10467,9 +9957,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10508,9 +9996,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10549,9 +10035,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,9 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10631,9 +10113,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,9 +10152,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10713,9 +10191,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10754,9 +10230,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,9 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10836,9 +10308,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10877,9 +10347,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10918,9 +10386,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10959,9 +10425,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11000,9 +10464,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,9 +10503,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11082,9 +10542,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11123,9 +10581,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11164,9 +10620,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11205,9 +10659,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11246,9 +10698,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11287,9 +10737,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11328,9 +10776,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11369,9 +10815,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11410,9 +10854,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11451,9 +10893,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11486,17 +10926,13 @@
         <v>6.093666666666664</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K275" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11529,17 +10965,13 @@
         <v>6.092166666666665</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K276" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11572,17 +11004,13 @@
         <v>6.091166666666664</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="K277" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11615,17 +11043,13 @@
         <v>6.089833333333331</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K278" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11664,9 +11088,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11699,17 +11121,13 @@
         <v>6.087333333333332</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K280" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11748,9 +11166,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11783,17 +11199,13 @@
         <v>6.084333333333332</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="K282" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11832,9 +11244,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11873,9 +11283,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11908,17 +11316,13 @@
         <v>6.079999999999998</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>6.07</v>
-      </c>
-      <c r="K285" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11957,9 +11361,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11998,9 +11400,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12039,9 +11439,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12080,9 +11478,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12121,9 +11517,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12162,9 +11556,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12203,9 +11595,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12244,9 +11634,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12285,9 +11673,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12326,9 +11712,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12367,9 +11751,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12408,9 +11790,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12449,9 +11829,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12490,9 +11868,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12531,9 +11907,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12572,9 +11946,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12613,9 +11985,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12654,9 +12024,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12695,9 +12063,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12736,9 +12102,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12777,9 +12141,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12818,9 +12180,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12859,9 +12219,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12900,9 +12258,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12941,9 +12297,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12982,9 +12336,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13023,9 +12375,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13064,9 +12414,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13105,9 +12453,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13146,9 +12492,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13184,19 +12528,17 @@
         <v>0</v>
       </c>
       <c r="I316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>6.02</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M316" t="n">
-        <v>1.078056478405316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -13225,11 +12567,15 @@
         <v>0</v>
       </c>
       <c r="I317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -13264,7 +12610,11 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -13295,11 +12645,15 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -13334,10 +12688,12 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -13645,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -18125,7 +17481,7 @@
         <v>0</v>
       </c>
       <c r="I457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
@@ -18160,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="I458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr"/>
@@ -18195,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="I459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr"/>
@@ -18230,7 +17586,7 @@
         <v>0</v>
       </c>
       <c r="I460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
@@ -18265,7 +17621,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>

--- a/BackTest/2019-10-14 BackTest FAB.xlsx
+++ b/BackTest/2019-10-14 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>71383.49687868336</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>71383.49687868336</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.89</v>
@@ -523,7 +523,7 @@
         <v>71426.49687868336</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.89</v>
@@ -562,7 +562,7 @@
         <v>71426.49687868336</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.93</v>
@@ -601,7 +601,7 @@
         <v>72251.30287868336</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.93</v>
@@ -640,7 +640,7 @@
         <v>379765.4480786834</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.95</v>
@@ -679,7 +679,7 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.96</v>
@@ -718,9 +718,11 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -755,9 +757,11 @@
         <v>442930.8229786834</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,9 +796,11 @@
         <v>442930.8229786834</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.98</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -14482,7 +14488,7 @@
         <v>22788600.66050995</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14630,7 +14636,7 @@
         <v>22204246.38550995</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14704,7 +14710,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14741,7 +14747,7 @@
         <v>25309423.70500994</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14778,7 +14784,7 @@
         <v>25309423.70500994</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14815,7 +14821,7 @@
         <v>25169111.13140994</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14852,7 +14858,7 @@
         <v>25031985.64810994</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15074,7 +15080,7 @@
         <v>25185291.72148747</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15111,7 +15117,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15148,7 +15154,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15222,7 +15228,7 @@
         <v>24642947.07509159</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15370,18 +15376,16 @@
         <v>24635446.67029159</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L405" t="inlineStr"/>
       <c r="M405" t="inlineStr"/>
     </row>
     <row r="406">
@@ -15407,15 +15411,11 @@
         <v>24635446.67029159</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -15448,11 +15448,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -15485,11 +15481,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -15522,11 +15514,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -15559,11 +15547,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -15596,11 +15580,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -15633,11 +15613,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -15670,11 +15646,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -15707,11 +15679,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -15744,11 +15712,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -15781,11 +15745,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -15818,11 +15778,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -15855,11 +15811,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15892,11 +15844,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15929,11 +15877,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15966,11 +15910,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -16003,11 +15943,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -16040,11 +15976,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -16077,11 +16009,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -16114,11 +16042,7 @@
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -16151,11 +16075,7 @@
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -16188,11 +16108,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -16225,11 +16141,7 @@
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -16258,15 +16170,11 @@
         <v>23791443.02902175</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -16295,15 +16203,11 @@
         <v>23790963.08842175</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -16332,15 +16236,11 @@
         <v>23723879.11752175</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -16369,15 +16269,11 @@
         <v>22840801.82342175</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -16406,15 +16302,11 @@
         <v>22961911.17752175</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -16443,15 +16335,11 @@
         <v>22969569.26142175</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -16480,15 +16368,11 @@
         <v>22969569.26142175</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -16517,15 +16401,11 @@
         <v>22834115.82112175</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -16554,15 +16434,11 @@
         <v>22982242.52842175</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -16591,15 +16467,11 @@
         <v>22995788.33332175</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -16628,15 +16500,11 @@
         <v>22944410.58022175</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -16665,15 +16533,11 @@
         <v>23052423.89662175</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -16702,15 +16566,11 @@
         <v>23052423.89662175</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -16739,15 +16599,11 @@
         <v>22794902.77232175</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -16776,15 +16632,11 @@
         <v>22799519.11802175</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -16813,15 +16665,11 @@
         <v>22805378.36492175</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -16850,15 +16698,11 @@
         <v>22788839.55902175</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -16887,15 +16731,11 @@
         <v>22841772.33552175</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -16924,15 +16764,11 @@
         <v>22801159.35482175</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -16961,15 +16797,11 @@
         <v>22801159.35482175</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -17002,11 +16834,7 @@
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -17039,11 +16867,7 @@
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -17076,11 +16900,7 @@
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -17113,11 +16933,7 @@
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -17150,11 +16966,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -17187,11 +16999,7 @@
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -17224,11 +17032,7 @@
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -17261,11 +17065,7 @@
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -17298,11 +17098,7 @@
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -17335,11 +17131,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -17372,11 +17164,7 @@
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -17409,11 +17197,7 @@
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17230,7 @@
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -17479,15 +17259,11 @@
         <v>20787966.65822175</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -17516,15 +17292,11 @@
         <v>20585208.03272175</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -17553,15 +17325,11 @@
         <v>20490924.09512175</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -17594,11 +17362,7 @@
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -17631,11 +17395,7 @@
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -17668,11 +17428,7 @@
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -17705,11 +17461,7 @@
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -17742,11 +17494,7 @@
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -17779,11 +17527,7 @@
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -17816,11 +17560,7 @@
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -17853,11 +17593,7 @@
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -17890,11 +17626,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -17927,11 +17659,7 @@
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -17964,11 +17692,7 @@
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -18001,11 +17725,7 @@
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -18038,11 +17758,7 @@
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -18075,11 +17791,7 @@
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -18112,11 +17824,7 @@
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -18149,11 +17857,7 @@
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -18186,11 +17890,7 @@
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -18223,11 +17923,7 @@
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -18260,11 +17956,7 @@
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -18297,11 +17989,7 @@
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -18334,11 +18022,7 @@
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -18371,11 +18055,7 @@
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -18408,11 +18088,7 @@
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -18445,11 +18121,7 @@
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -18482,11 +18154,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -18519,11 +18187,7 @@
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -18556,11 +18220,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -18593,11 +18253,7 @@
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -18630,11 +18286,7 @@
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -18667,11 +18319,7 @@
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -18704,11 +18352,7 @@
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -18741,11 +18385,7 @@
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18778,11 +18418,7 @@
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18815,11 +18451,7 @@
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18852,11 +18484,7 @@
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18889,11 +18517,7 @@
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18926,11 +18550,7 @@
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18963,11 +18583,7 @@
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -19000,11 +18616,7 @@
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -19033,16 +18645,14 @@
         <v>21291582.30092175</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
+      <c r="L504" t="n">
+        <v>1</v>
+      </c>
       <c r="M504" t="inlineStr"/>
     </row>
     <row r="505">
@@ -19068,7 +18678,7 @@
         <v>21854972.24192175</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19398,7 +19008,7 @@
         <v>23888970.63112174</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19431,7 +19041,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19464,7 +19074,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19497,7 +19107,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19530,7 +19140,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19563,7 +19173,7 @@
         <v>24061827.76708592</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19596,7 +19206,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19629,7 +19239,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19662,7 +19272,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19695,7 +19305,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19728,7 +19338,7 @@
         <v>25256688.21449997</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19761,7 +19371,7 @@
         <v>25097352.38829997</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19794,7 +19404,7 @@
         <v>24981579.61599997</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19827,7 +19437,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19860,7 +19470,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19893,7 +19503,7 @@
         <v>24979892.30479997</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19926,7 +19536,7 @@
         <v>24977656.13189997</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19959,7 +19569,7 @@
         <v>24921928.84739997</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19992,7 +19602,7 @@
         <v>25039114.15309997</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20025,7 +19635,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20058,7 +19668,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20091,7 +19701,7 @@
         <v>25230019.49729997</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20124,7 +19734,7 @@
         <v>25198946.02969997</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20157,7 +19767,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20190,7 +19800,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20223,7 +19833,7 @@
         <v>25184734.47199772</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20256,7 +19866,7 @@
         <v>25186416.04369772</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20289,7 +19899,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20685,7 +20295,7 @@
         <v>24607529.60539997</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20718,7 +20328,7 @@
         <v>24524442.57689998</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20817,7 +20427,7 @@
         <v>24149630.60329751</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20850,7 +20460,7 @@
         <v>24149630.60329751</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20883,7 +20493,7 @@
         <v>24120855.17319751</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20916,7 +20526,7 @@
         <v>24529324.59959751</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20949,7 +20559,7 @@
         <v>24515699.31879751</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20982,7 +20592,7 @@
         <v>24563762.98079751</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21015,7 +20625,7 @@
         <v>24563772.98079751</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21048,7 +20658,7 @@
         <v>24563126.74879751</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21081,7 +20691,7 @@
         <v>24563126.74879751</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21114,7 +20724,7 @@
         <v>24612611.71049751</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21147,7 +20757,7 @@
         <v>24612611.71049751</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22401,7 +22011,7 @@
         <v>23060504.21480746</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24689,6 +24299,6 @@
       <c r="M675" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest FAB.xlsx
+++ b/BackTest/2019-10-14 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -640,11 +640,9 @@
         <v>379765.4480786834</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -679,11 +677,9 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -718,11 +714,9 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -757,11 +751,9 @@
         <v>442930.8229786834</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.97</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
@@ -796,11 +788,9 @@
         <v>442930.8229786834</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>5.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
@@ -2870,18 +2860,16 @@
         <v>12852020.26561947</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2911,11 +2899,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2948,11 +2932,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2981,15 +2961,11 @@
         <v>11469716.51723428</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3018,15 +2994,11 @@
         <v>11486825.94253428</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3055,15 +3027,11 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3092,15 +3060,11 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3129,15 +3093,11 @@
         <v>10035957.3717491</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3166,15 +3126,11 @@
         <v>10035807.3717491</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3207,11 +3163,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3244,11 +3196,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3281,11 +3229,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3318,11 +3262,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3295,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3392,11 +3328,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3429,11 +3361,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3466,11 +3394,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3503,11 +3427,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3540,11 +3460,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3577,11 +3493,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3614,11 +3526,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3651,11 +3559,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3688,11 +3592,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3725,11 +3625,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3762,11 +3658,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3799,11 +3691,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3836,11 +3724,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3873,11 +3757,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3910,11 +3790,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3947,11 +3823,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3984,11 +3856,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4021,11 +3889,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4058,11 +3922,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +3955,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +3988,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4021,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +4054,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +4087,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +4120,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4317,11 +4153,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4354,11 +4186,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4391,11 +4219,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4428,11 +4252,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4465,11 +4285,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4502,11 +4318,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4539,11 +4351,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +4384,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4613,11 +4417,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4650,11 +4450,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4687,11 +4483,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4724,11 +4516,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4761,11 +4549,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4798,11 +4582,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4835,11 +4615,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4872,11 +4648,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4909,11 +4681,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4946,11 +4714,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4983,11 +4747,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5020,11 +4780,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +4813,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +4846,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5131,11 +4879,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5168,11 +4912,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5205,11 +4945,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5242,11 +4978,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5279,11 +5011,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5316,11 +5044,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5353,11 +5077,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5390,11 +5110,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5427,11 +5143,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5464,11 +5176,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5501,11 +5209,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5538,11 +5242,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5575,11 +5275,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5612,11 +5308,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5649,11 +5341,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +5374,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5723,11 +5407,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5760,11 +5440,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5797,11 +5473,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5834,11 +5506,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5871,11 +5539,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5908,11 +5572,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5945,11 +5605,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5982,11 +5638,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6019,11 +5671,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6056,11 +5704,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6093,11 +5737,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6130,11 +5770,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6167,11 +5803,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6204,11 +5836,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6241,11 +5869,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6278,11 +5902,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6311,15 +5931,11 @@
         <v>12130449.04062773</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6348,15 +5964,11 @@
         <v>12160554.67282773</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6385,15 +5997,11 @@
         <v>12158079.25632773</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +6034,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6463,11 +6067,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +6100,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6537,11 +6133,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6574,11 +6166,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6611,11 +6199,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6648,11 +6232,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6685,11 +6265,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6718,15 +6294,11 @@
         <v>11663499.82935337</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6759,11 +6331,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6796,11 +6364,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6829,15 +6393,11 @@
         <v>11562810.82935337</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6866,15 +6426,11 @@
         <v>11565010.82935337</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6903,15 +6459,11 @@
         <v>11567421.82935337</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6944,11 +6496,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6977,15 +6525,11 @@
         <v>11565842.82935337</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +6562,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7051,15 +6591,11 @@
         <v>11561722.82935337</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +6628,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7129,11 +6661,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7166,11 +6694,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7203,11 +6727,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7240,11 +6760,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7277,11 +6793,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7314,11 +6826,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7351,11 +6859,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7388,11 +6892,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7425,11 +6925,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7462,11 +6958,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7499,11 +6991,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7536,11 +7024,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7573,11 +7057,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7610,11 +7090,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7647,11 +7123,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7684,11 +7156,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7721,11 +7189,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7758,11 +7222,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7795,11 +7255,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7832,11 +7288,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7869,11 +7321,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7906,11 +7354,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7943,11 +7387,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7980,11 +7420,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8017,11 +7453,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8054,11 +7486,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8091,11 +7519,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8128,11 +7552,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8165,11 +7585,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8202,11 +7618,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8239,11 +7651,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8276,11 +7684,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8313,11 +7717,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8350,11 +7750,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8387,11 +7783,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8424,11 +7816,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8461,11 +7849,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8498,11 +7882,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8535,11 +7915,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8572,11 +7948,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8609,11 +7981,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8646,11 +8014,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8683,11 +8047,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8720,11 +8080,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8757,11 +8113,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8794,11 +8146,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8831,11 +8179,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8868,11 +8212,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8905,11 +8245,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8942,11 +8278,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8979,11 +8311,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9016,11 +8344,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9053,11 +8377,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9090,11 +8410,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9127,11 +8443,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9164,11 +8476,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9201,11 +8509,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9238,11 +8542,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9275,11 +8575,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9312,11 +8608,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +8641,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +8674,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9423,11 +8707,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9460,11 +8740,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9497,11 +8773,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9534,11 +8806,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9571,11 +8839,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9608,11 +8872,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9645,11 +8905,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9682,11 +8938,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9719,11 +8971,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9756,11 +9004,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9793,11 +9037,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9830,11 +9070,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9867,11 +9103,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9904,11 +9136,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9941,11 +9169,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9978,11 +9202,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10015,11 +9235,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +9268,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10089,11 +9301,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10126,11 +9334,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10163,11 +9367,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10200,11 +9400,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10237,11 +9433,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10274,11 +9466,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10311,11 +9499,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10348,11 +9532,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10385,11 +9565,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10422,11 +9598,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10459,11 +9631,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10496,11 +9664,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10533,11 +9697,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10570,11 +9730,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10607,11 +9763,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10644,11 +9796,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +9829,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10718,11 +9862,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10755,11 +9895,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10792,11 +9928,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10829,11 +9961,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10866,11 +9994,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10903,11 +10027,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10940,11 +10060,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10977,11 +10093,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11014,11 +10126,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11051,11 +10159,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11088,11 +10192,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11125,11 +10225,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11162,11 +10258,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11199,11 +10291,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11236,11 +10324,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11273,11 +10357,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11310,11 +10390,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11347,11 +10423,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11384,11 +10456,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11421,11 +10489,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11458,11 +10522,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11495,11 +10555,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11532,11 +10588,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11569,11 +10621,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11606,11 +10654,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11643,11 +10687,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11680,11 +10720,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11717,11 +10753,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11754,11 +10786,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11791,11 +10819,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11828,11 +10852,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11865,11 +10885,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11902,11 +10918,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11939,11 +10951,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11976,11 +10984,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12013,11 +11017,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12050,11 +11050,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12087,11 +11083,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12124,11 +11116,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12161,11 +11149,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12198,11 +11182,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12235,11 +11215,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12272,11 +11248,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12309,11 +11281,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12346,11 +11314,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12383,11 +11347,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12420,11 +11380,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12457,11 +11413,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12494,11 +11446,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12531,11 +11479,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12568,11 +11512,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12605,11 +11545,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12642,11 +11578,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12679,11 +11611,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12716,11 +11644,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12753,11 +11677,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12790,11 +11710,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12827,11 +11743,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12864,11 +11776,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12901,11 +11809,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12938,11 +11842,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12975,11 +11875,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13012,11 +11908,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13049,11 +11941,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13086,11 +11974,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +12007,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13160,11 +12040,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13197,11 +12073,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13234,11 +12106,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13271,11 +12139,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13308,11 +12172,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13345,11 +12205,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13382,11 +12238,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13419,11 +12271,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13456,11 +12304,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13493,11 +12337,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13530,11 +12370,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13567,11 +12403,7 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -13604,11 +12436,7 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -13641,11 +12469,7 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13678,11 +12502,7 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13715,11 +12535,7 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -13752,11 +12568,7 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13789,11 +12601,7 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13826,11 +12634,7 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13863,11 +12667,7 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13900,11 +12700,7 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13937,11 +12733,7 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13974,11 +12766,7 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14011,11 +12799,7 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14048,11 +12832,7 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14081,15 +12861,11 @@
         <v>13185477.44386533</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14118,15 +12894,11 @@
         <v>14298144.21756019</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14155,15 +12927,11 @@
         <v>14603456.09236019</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14192,15 +12960,11 @@
         <v>15609016.11216533</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14229,15 +12993,11 @@
         <v>16238965.64936533</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -14266,15 +13026,11 @@
         <v>16924453.40326533</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -14303,15 +13059,11 @@
         <v>18696102.57426533</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -14340,15 +13092,11 @@
         <v>23002903.19305096</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -14381,11 +13129,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -14418,11 +13162,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -14455,11 +13195,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -14492,11 +13228,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -14529,11 +13261,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -14566,11 +13294,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14603,11 +13327,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -14640,11 +13360,7 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -14677,11 +13393,7 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -14714,11 +13426,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -14751,11 +13459,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -14788,11 +13492,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -14825,11 +13525,7 @@
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -14862,11 +13558,7 @@
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -14899,11 +13591,7 @@
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14936,11 +13624,7 @@
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14973,11 +13657,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15010,11 +13690,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15047,11 +13723,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15084,11 +13756,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15121,11 +13789,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15158,11 +13822,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -15195,11 +13855,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -15228,15 +13884,11 @@
         <v>24642947.07509159</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -15265,15 +13917,11 @@
         <v>24685500.67029159</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -15302,15 +13950,11 @@
         <v>24685500.67029159</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -15339,15 +13983,11 @@
         <v>24635435.67029159</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -15380,12 +14020,10 @@
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
       <c r="M405" t="inlineStr"/>
     </row>
     <row r="406">
@@ -15444,7 +14082,7 @@
         <v>24606137.86135476</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15477,7 +14115,7 @@
         <v>24606137.86135476</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15510,7 +14148,7 @@
         <v>24606137.86135476</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15543,7 +14181,7 @@
         <v>24543023.60295476</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15576,7 +14214,7 @@
         <v>24569945.86075476</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16170,7 +14808,7 @@
         <v>23791443.02902175</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16203,7 +14841,7 @@
         <v>23790963.08842175</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16236,7 +14874,7 @@
         <v>23723879.11752175</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16269,7 +14907,7 @@
         <v>22840801.82342175</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16302,7 +14940,7 @@
         <v>22961911.17752175</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16335,7 +14973,7 @@
         <v>22969569.26142175</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16368,7 +15006,7 @@
         <v>22969569.26142175</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16401,7 +15039,7 @@
         <v>22834115.82112175</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16434,7 +15072,7 @@
         <v>22982242.52842175</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16467,7 +15105,7 @@
         <v>22995788.33332175</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16500,7 +15138,7 @@
         <v>22944410.58022175</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16533,7 +15171,7 @@
         <v>23052423.89662175</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16566,7 +15204,7 @@
         <v>23052423.89662175</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16599,7 +15237,7 @@
         <v>22794902.77232175</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16632,7 +15270,7 @@
         <v>22799519.11802175</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16665,7 +15303,7 @@
         <v>22805378.36492175</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16698,7 +15336,7 @@
         <v>22788839.55902175</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16731,7 +15369,7 @@
         <v>22841772.33552175</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16764,7 +15402,7 @@
         <v>22801159.35482175</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16797,7 +15435,7 @@
         <v>22801159.35482175</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17259,7 +15897,7 @@
         <v>20787966.65822175</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17292,7 +15930,7 @@
         <v>20585208.03272175</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17325,7 +15963,7 @@
         <v>20490924.09512175</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -19173,7 +17811,7 @@
         <v>24061827.76708592</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19239,7 +17877,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19272,7 +17910,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19305,7 +17943,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19338,7 +17976,7 @@
         <v>25256688.21449997</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19371,7 +18009,7 @@
         <v>25097352.38829997</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19404,7 +18042,7 @@
         <v>24981579.61599997</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19437,7 +18075,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19470,7 +18108,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19503,7 +18141,7 @@
         <v>24979892.30479997</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19536,7 +18174,7 @@
         <v>24977656.13189997</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19569,7 +18207,7 @@
         <v>24921928.84739997</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19602,7 +18240,7 @@
         <v>25039114.15309997</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19635,7 +18273,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19668,7 +18306,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19701,7 +18339,7 @@
         <v>25230019.49729997</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19734,7 +18372,7 @@
         <v>25198946.02969997</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19767,7 +18405,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19800,7 +18438,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19833,7 +18471,7 @@
         <v>25184734.47199772</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19866,7 +18504,7 @@
         <v>25186416.04369772</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19899,7 +18537,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20295,7 +18933,7 @@
         <v>24607529.60539997</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20328,7 +18966,7 @@
         <v>24524442.57689998</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20427,7 +19065,7 @@
         <v>24149630.60329751</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20460,7 +19098,7 @@
         <v>24149630.60329751</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20493,7 +19131,7 @@
         <v>24120855.17319751</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20526,7 +19164,7 @@
         <v>24529324.59959751</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20559,7 +19197,7 @@
         <v>24515699.31879751</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20592,7 +19230,7 @@
         <v>24563762.98079751</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20625,7 +19263,7 @@
         <v>24563772.98079751</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20658,7 +19296,7 @@
         <v>24563126.74879751</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20691,7 +19329,7 @@
         <v>24563126.74879751</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20724,7 +19362,7 @@
         <v>24612611.71049751</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20757,7 +19395,7 @@
         <v>24612611.71049751</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -22011,7 +20649,7 @@
         <v>23060504.21480746</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -24299,6 +22937,6 @@
       <c r="M675" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest FAB.xlsx
+++ b/BackTest/2019-10-14 BackTest FAB.xlsx
@@ -640,9 +640,11 @@
         <v>379765.4480786834</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.95</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
@@ -677,9 +679,11 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.96</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,9 +718,11 @@
         <v>442920.8229786834</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.97</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -2860,16 +2866,18 @@
         <v>12852020.26561947</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
       <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2899,7 +2907,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2932,7 +2944,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2961,11 +2977,15 @@
         <v>11469716.51723428</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2994,11 +3014,15 @@
         <v>11486825.94253428</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3027,11 +3051,15 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3060,11 +3088,15 @@
         <v>11486813.58653428</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3093,11 +3125,15 @@
         <v>10035957.3717491</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +3162,15 @@
         <v>10035807.3717491</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3163,7 +3203,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3196,7 +3240,11 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3229,7 +3277,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3262,7 +3314,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3295,7 +3351,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3328,7 +3388,11 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3361,7 +3425,11 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3394,7 +3462,11 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3427,7 +3499,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3460,7 +3536,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3493,7 +3573,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3526,7 +3610,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3559,7 +3647,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3592,7 +3684,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3625,7 +3721,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3658,7 +3758,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3691,7 +3795,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3724,7 +3832,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3757,7 +3869,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3790,7 +3906,11 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3823,7 +3943,11 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3856,7 +3980,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3889,7 +4017,11 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3922,7 +4054,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3955,7 +4091,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3988,7 +4128,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4021,7 +4165,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4054,7 +4202,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4087,7 +4239,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4120,7 +4276,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4153,7 +4313,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4186,7 +4350,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4219,7 +4387,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4252,7 +4424,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4285,7 +4461,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4318,7 +4498,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4351,7 +4535,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4384,7 +4572,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4417,7 +4609,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4450,7 +4646,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4683,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4516,7 +4720,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4549,7 +4757,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4582,7 +4794,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4615,7 +4831,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4648,7 +4868,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4681,7 +4905,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4714,7 +4942,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4747,7 +4979,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4780,7 +5016,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4813,7 +5053,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4846,7 +5090,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4879,7 +5127,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4912,7 +5164,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4945,7 +5201,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4978,7 +5238,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5011,7 +5275,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +5312,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5077,7 +5349,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5110,7 +5386,11 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5143,7 +5423,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5176,7 +5460,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5209,7 +5497,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5242,7 +5534,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5275,7 +5571,11 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5308,7 +5608,11 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5341,7 +5645,11 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5374,7 +5682,11 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5407,7 +5719,11 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5440,7 +5756,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5473,7 +5793,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5506,7 +5830,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5539,7 +5867,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5572,7 +5904,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5605,7 +5941,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5978,11 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5671,7 +6015,11 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5704,7 +6052,11 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5737,7 +6089,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5770,7 +6126,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5803,7 +6163,11 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5836,7 +6200,11 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5869,7 +6237,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5902,7 +6274,11 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5931,11 +6307,15 @@
         <v>12130449.04062773</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5964,11 +6344,15 @@
         <v>12160554.67282773</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5997,11 +6381,15 @@
         <v>12158079.25632773</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6034,7 +6422,11 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6067,7 +6459,11 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6100,7 +6496,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6133,7 +6533,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6166,7 +6570,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6199,7 +6607,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6232,7 +6644,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6265,7 +6681,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6294,11 +6714,15 @@
         <v>11663499.82935337</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6331,7 +6755,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6364,7 +6792,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6393,11 +6825,15 @@
         <v>11562810.82935337</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6426,11 +6862,15 @@
         <v>11565010.82935337</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6459,11 +6899,15 @@
         <v>11567421.82935337</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6496,7 +6940,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6525,11 +6973,15 @@
         <v>11565842.82935337</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6562,7 +7014,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6591,11 +7047,15 @@
         <v>11561722.82935337</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6628,7 +7088,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6661,7 +7125,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6694,7 +7162,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6727,7 +7199,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6760,7 +7236,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7273,11 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6826,7 +7310,11 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6859,7 +7347,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6892,7 +7384,11 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6925,7 +7421,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6958,7 +7458,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6991,7 +7495,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7024,7 +7532,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7057,7 +7569,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7090,7 +7606,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7123,7 +7643,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7156,7 +7680,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7189,7 +7717,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7222,7 +7754,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7255,7 +7791,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7288,7 +7828,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7321,7 +7865,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7354,7 +7902,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7387,7 +7939,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7420,7 +7976,11 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7453,7 +8013,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7486,7 +8050,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7519,7 +8087,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7552,7 +8124,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7585,7 +8161,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7618,7 +8198,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7651,7 +8235,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7684,7 +8272,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7717,7 +8309,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7750,7 +8346,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7783,7 +8383,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7816,7 +8420,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7849,7 +8457,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7882,7 +8494,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7915,7 +8531,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8568,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7981,7 +8605,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8014,7 +8642,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8047,7 +8679,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8080,7 +8716,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8113,7 +8753,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8146,7 +8790,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8179,7 +8827,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8212,7 +8864,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8245,7 +8901,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8278,7 +8938,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8311,7 +8975,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8344,7 +9012,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8377,7 +9049,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8410,7 +9086,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8443,7 +9123,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8476,7 +9160,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8509,7 +9197,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8542,7 +9234,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8575,7 +9271,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8608,7 +9308,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8641,7 +9345,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8674,7 +9382,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8707,7 +9419,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8740,7 +9456,11 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8773,7 +9493,11 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8806,7 +9530,11 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8839,7 +9567,11 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8872,7 +9604,11 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8905,7 +9641,11 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8938,7 +9678,11 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8971,7 +9715,11 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9004,7 +9752,11 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9037,7 +9789,11 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9070,7 +9826,11 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9863,11 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9136,7 +9900,11 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9169,7 +9937,11 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9202,7 +9974,11 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9235,7 +10011,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9268,7 +10048,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9301,7 +10085,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9334,7 +10122,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9367,7 +10159,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9400,7 +10196,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9433,7 +10233,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9466,7 +10270,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9499,7 +10307,11 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9532,7 +10344,11 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9565,7 +10381,11 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9598,7 +10418,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9631,7 +10455,11 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9664,7 +10492,11 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9697,7 +10529,11 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9730,7 +10566,11 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9763,7 +10603,11 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9796,7 +10640,11 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9829,7 +10677,11 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9862,7 +10714,11 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9895,7 +10751,11 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9928,7 +10788,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9961,7 +10825,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9994,7 +10862,11 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10027,7 +10899,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10060,7 +10936,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10093,7 +10973,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10126,7 +11010,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10159,7 +11047,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10192,7 +11084,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10225,7 +11121,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +11158,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10291,7 +11195,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10324,7 +11232,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10357,7 +11269,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10390,7 +11306,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10423,7 +11343,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10456,7 +11380,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10489,7 +11417,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10522,7 +11454,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10555,7 +11491,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10588,7 +11528,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10621,7 +11565,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10654,7 +11602,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10687,7 +11639,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10720,7 +11676,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10753,7 +11713,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10786,7 +11750,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10819,7 +11787,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10852,7 +11824,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10885,7 +11861,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10918,7 +11898,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10951,7 +11935,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10984,7 +11972,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11017,7 +12009,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11050,7 +12046,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11083,7 +12083,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11116,7 +12120,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11149,7 +12157,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11182,7 +12194,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11215,7 +12231,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11248,7 +12268,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11281,7 +12305,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11314,7 +12342,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11347,7 +12379,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11380,7 +12416,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11413,7 +12453,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11446,7 +12490,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11479,7 +12527,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11512,7 +12564,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11545,7 +12601,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11578,7 +12638,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11611,7 +12675,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11644,7 +12712,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11677,7 +12749,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11710,7 +12786,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11743,7 +12823,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11776,7 +12860,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11809,7 +12897,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11842,7 +12934,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11875,7 +12971,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11908,7 +13008,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11941,7 +13045,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11974,7 +13082,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12007,7 +13119,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12040,7 +13156,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12073,7 +13193,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12106,7 +13230,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12139,7 +13267,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12172,7 +13304,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12205,7 +13341,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12238,7 +13378,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12271,7 +13415,11 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12304,7 +13452,11 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12337,7 +13489,11 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12370,7 +13526,11 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12403,7 +13563,11 @@
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12436,7 +13600,11 @@
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12469,7 +13637,11 @@
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12502,7 +13674,11 @@
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12535,7 +13711,11 @@
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12568,7 +13748,11 @@
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12601,7 +13785,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12634,7 +13822,11 @@
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12667,7 +13859,11 @@
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12700,7 +13896,11 @@
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12733,7 +13933,11 @@
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12766,7 +13970,11 @@
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12799,7 +14007,11 @@
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12832,7 +14044,11 @@
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12861,11 +14077,15 @@
         <v>13185477.44386533</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12894,11 +14114,15 @@
         <v>14298144.21756019</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12927,11 +14151,15 @@
         <v>14603456.09236019</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12960,11 +14188,15 @@
         <v>15609016.11216533</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12993,11 +14225,15 @@
         <v>16238965.64936533</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13026,11 +14262,15 @@
         <v>16924453.40326533</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13059,11 +14299,15 @@
         <v>18696102.57426533</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13092,11 +14336,15 @@
         <v>23002903.19305096</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13129,7 +14377,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13158,14 +14410,16 @@
         <v>23355572.4664743</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr"/>
       <c r="M379" t="inlineStr"/>
     </row>
     <row r="380">
@@ -13191,7 +14445,7 @@
         <v>22061151.49390995</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13224,7 +14478,7 @@
         <v>22788600.66050995</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13257,7 +14511,7 @@
         <v>23091069.42290995</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13290,7 +14544,7 @@
         <v>22493373.37680995</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13356,7 +14610,7 @@
         <v>22204246.38550995</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13389,7 +14643,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13422,7 +14676,7 @@
         <v>25310866.58970995</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13488,7 +14742,7 @@
         <v>25309423.70500994</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13521,7 +14775,7 @@
         <v>25169111.13140994</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13554,7 +14808,7 @@
         <v>25031985.64810994</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13587,7 +14841,7 @@
         <v>25259143.79970994</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13620,7 +14874,7 @@
         <v>25090638.78221406</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13653,7 +14907,7 @@
         <v>25226025.42971406</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13686,7 +14940,7 @@
         <v>25340503.76771817</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13752,7 +15006,7 @@
         <v>25185291.72148747</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13785,7 +15039,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13818,7 +15072,7 @@
         <v>25173719.21099159</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13851,7 +15105,7 @@
         <v>25171141.26329159</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14181,7 +15435,7 @@
         <v>24543023.60295476</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14214,7 +15468,7 @@
         <v>24569945.86075476</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -17646,7 +18900,7 @@
         <v>23888970.63112174</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17679,7 +18933,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17712,7 +18966,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17745,7 +18999,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17778,7 +19032,7 @@
         <v>24155561.03408592</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17811,7 +19065,7 @@
         <v>24061827.76708592</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17844,7 +19098,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17877,7 +19131,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17910,7 +19164,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17943,7 +19197,7 @@
         <v>24553135.70779997</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17976,7 +19230,7 @@
         <v>25256688.21449997</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18009,7 +19263,7 @@
         <v>25097352.38829997</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18042,7 +19296,7 @@
         <v>24981579.61599997</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18075,7 +19329,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18108,7 +19362,7 @@
         <v>24961387.16429997</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18141,7 +19395,7 @@
         <v>24979892.30479997</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18174,7 +19428,7 @@
         <v>24977656.13189997</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18207,7 +19461,7 @@
         <v>24921928.84739997</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18240,7 +19494,7 @@
         <v>25039114.15309997</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18273,7 +19527,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18306,7 +19560,7 @@
         <v>25034082.15309997</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18339,7 +19593,7 @@
         <v>25230019.49729997</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18372,7 +19626,7 @@
         <v>25198946.02969997</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18405,7 +19659,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18438,7 +19692,7 @@
         <v>25276874.36119772</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18471,7 +19725,7 @@
         <v>25184734.47199772</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18504,7 +19758,7 @@
         <v>25186416.04369772</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18537,7 +19791,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18570,7 +19824,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18603,7 +19857,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18636,7 +19890,7 @@
         <v>25194101.96029997</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18669,7 +19923,7 @@
         <v>24797150.09059997</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18702,7 +19956,7 @@
         <v>24797161.09059997</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18735,7 +19989,7 @@
         <v>24673593.34059997</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18768,7 +20022,7 @@
         <v>24700579.55109997</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18801,7 +20055,7 @@
         <v>24700579.55109997</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18834,7 +20088,7 @@
         <v>24512754.99059997</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18867,7 +20121,7 @@
         <v>24011147.71529997</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
